--- a/rakusei_map.xlsx
+++ b/rakusei_map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kense\デスクトップ\homepage@culture_fes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41E4CDC-CF1A-4CA5-8783-E0307EA93B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057A0D59-6913-4574-B7D5-304C5C17EB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0FD23363-8888-4128-81A0-213EBCF6C1E3}"/>
   </bookViews>
@@ -338,7 +338,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -399,10 +399,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -423,88 +462,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -823,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C6395D-257A-4738-866E-46076A2F64F2}">
   <dimension ref="K6:CN54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" workbookViewId="0">
-      <selection activeCell="CT32" sqref="CT32"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -841,72 +802,72 @@
       <c r="N6" s="19"/>
       <c r="O6" s="19"/>
       <c r="P6" s="19"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="29"/>
-      <c r="Z6" s="29"/>
-      <c r="AA6" s="29"/>
-      <c r="AB6" s="30"/>
-      <c r="AC6" s="20"/>
-      <c r="AD6" s="20"/>
-      <c r="AE6" s="20"/>
-      <c r="AF6" s="55"/>
-      <c r="AG6" s="28"/>
-      <c r="AH6" s="29"/>
-      <c r="AI6" s="29"/>
-      <c r="AJ6" s="29"/>
-      <c r="AK6" s="30"/>
-      <c r="AL6" s="28"/>
-      <c r="AM6" s="29"/>
-      <c r="AN6" s="29"/>
-      <c r="AO6" s="30"/>
-      <c r="AP6" s="28"/>
-      <c r="AQ6" s="29"/>
-      <c r="AR6" s="29"/>
-      <c r="AS6" s="28"/>
-      <c r="AT6" s="29"/>
-      <c r="AU6" s="30"/>
-      <c r="AV6" s="28"/>
-      <c r="AW6" s="29"/>
-      <c r="AX6" s="30"/>
-      <c r="AY6" s="28"/>
-      <c r="AZ6" s="29"/>
-      <c r="BA6" s="30"/>
-      <c r="BB6" s="29"/>
-      <c r="BC6" s="29"/>
-      <c r="BD6" s="29"/>
-      <c r="BE6" s="29"/>
-      <c r="BF6" s="29"/>
-      <c r="BG6" s="29"/>
-      <c r="BH6" s="29"/>
-      <c r="BI6" s="29"/>
-      <c r="BJ6" s="29"/>
-      <c r="BK6" s="29"/>
-      <c r="BL6" s="30"/>
-      <c r="BQ6" s="28"/>
-      <c r="BR6" s="29"/>
-      <c r="BS6" s="29"/>
-      <c r="BT6" s="29"/>
-      <c r="BU6" s="29"/>
-      <c r="BV6" s="29"/>
-      <c r="BW6" s="29"/>
-      <c r="BX6" s="29"/>
-      <c r="BY6" s="29"/>
-      <c r="BZ6" s="29"/>
-      <c r="CA6" s="29"/>
-      <c r="CB6" s="30"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="33"/>
+      <c r="AD6" s="33"/>
+      <c r="AE6" s="33"/>
+      <c r="AF6" s="34"/>
+      <c r="AG6" s="26"/>
+      <c r="AH6" s="27"/>
+      <c r="AI6" s="27"/>
+      <c r="AJ6" s="27"/>
+      <c r="AK6" s="28"/>
+      <c r="AL6" s="26"/>
+      <c r="AM6" s="27"/>
+      <c r="AN6" s="27"/>
+      <c r="AO6" s="28"/>
+      <c r="AP6" s="26"/>
+      <c r="AQ6" s="27"/>
+      <c r="AR6" s="27"/>
+      <c r="AS6" s="26"/>
+      <c r="AT6" s="27"/>
+      <c r="AU6" s="28"/>
+      <c r="AV6" s="26"/>
+      <c r="AW6" s="27"/>
+      <c r="AX6" s="28"/>
+      <c r="AY6" s="26"/>
+      <c r="AZ6" s="27"/>
+      <c r="BA6" s="28"/>
+      <c r="BB6" s="27"/>
+      <c r="BC6" s="27"/>
+      <c r="BD6" s="27"/>
+      <c r="BE6" s="27"/>
+      <c r="BF6" s="27"/>
+      <c r="BG6" s="27"/>
+      <c r="BH6" s="27"/>
+      <c r="BI6" s="27"/>
+      <c r="BJ6" s="27"/>
+      <c r="BK6" s="27"/>
+      <c r="BL6" s="28"/>
+      <c r="BQ6" s="26"/>
+      <c r="BR6" s="27"/>
+      <c r="BS6" s="27"/>
+      <c r="BT6" s="27"/>
+      <c r="BU6" s="27"/>
+      <c r="BV6" s="27"/>
+      <c r="BW6" s="27"/>
+      <c r="BX6" s="27"/>
+      <c r="BY6" s="27"/>
+      <c r="BZ6" s="27"/>
+      <c r="CA6" s="27"/>
+      <c r="CB6" s="28"/>
       <c r="CG6" s="19"/>
       <c r="CH6" s="19"/>
       <c r="CI6" s="19"/>
       <c r="CJ6" s="19"/>
-      <c r="CK6" s="28"/>
-      <c r="CL6" s="30"/>
+      <c r="CK6" s="26"/>
+      <c r="CL6" s="28"/>
       <c r="CM6" s="8"/>
       <c r="CN6" s="8"/>
     </row>
@@ -917,70 +878,70 @@
       <c r="N7" s="19"/>
       <c r="O7" s="19"/>
       <c r="P7" s="19"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="31"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="32"/>
-      <c r="X7" s="32"/>
-      <c r="Y7" s="32"/>
-      <c r="Z7" s="32"/>
-      <c r="AA7" s="32"/>
-      <c r="AB7" s="33"/>
-      <c r="AC7" s="20"/>
-      <c r="AD7" s="20"/>
-      <c r="AE7" s="20"/>
-      <c r="AF7" s="55"/>
-      <c r="AG7" s="31"/>
-      <c r="AH7" s="32"/>
-      <c r="AI7" s="32"/>
-      <c r="AJ7" s="32"/>
-      <c r="AK7" s="33"/>
-      <c r="AL7" s="31"/>
-      <c r="AM7" s="32"/>
-      <c r="AN7" s="32"/>
-      <c r="AO7" s="33"/>
-      <c r="AP7" s="31"/>
-      <c r="AQ7" s="32"/>
-      <c r="AR7" s="32"/>
-      <c r="AS7" s="31"/>
-      <c r="AT7" s="32"/>
-      <c r="AU7" s="33"/>
-      <c r="AV7" s="31"/>
-      <c r="AW7" s="32"/>
-      <c r="AX7" s="33"/>
-      <c r="AY7" s="31"/>
-      <c r="AZ7" s="32"/>
-      <c r="BA7" s="33"/>
-      <c r="BB7" s="32"/>
-      <c r="BC7" s="32"/>
-      <c r="BD7" s="32"/>
-      <c r="BE7" s="32"/>
-      <c r="BF7" s="32"/>
-      <c r="BG7" s="32"/>
-      <c r="BH7" s="32"/>
-      <c r="BI7" s="32"/>
-      <c r="BJ7" s="32"/>
-      <c r="BK7" s="32"/>
-      <c r="BL7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="24"/>
+      <c r="AB7" s="25"/>
+      <c r="AC7" s="33"/>
+      <c r="AD7" s="33"/>
+      <c r="AE7" s="33"/>
+      <c r="AF7" s="34"/>
+      <c r="AG7" s="23"/>
+      <c r="AH7" s="24"/>
+      <c r="AI7" s="24"/>
+      <c r="AJ7" s="24"/>
+      <c r="AK7" s="25"/>
+      <c r="AL7" s="23"/>
+      <c r="AM7" s="24"/>
+      <c r="AN7" s="24"/>
+      <c r="AO7" s="25"/>
+      <c r="AP7" s="23"/>
+      <c r="AQ7" s="24"/>
+      <c r="AR7" s="24"/>
+      <c r="AS7" s="23"/>
+      <c r="AT7" s="24"/>
+      <c r="AU7" s="25"/>
+      <c r="AV7" s="23"/>
+      <c r="AW7" s="24"/>
+      <c r="AX7" s="25"/>
+      <c r="AY7" s="23"/>
+      <c r="AZ7" s="24"/>
+      <c r="BA7" s="25"/>
+      <c r="BB7" s="24"/>
+      <c r="BC7" s="24"/>
+      <c r="BD7" s="24"/>
+      <c r="BE7" s="24"/>
+      <c r="BF7" s="24"/>
+      <c r="BG7" s="24"/>
+      <c r="BH7" s="24"/>
+      <c r="BI7" s="24"/>
+      <c r="BJ7" s="24"/>
+      <c r="BK7" s="24"/>
+      <c r="BL7" s="25"/>
       <c r="BM7" s="6"/>
       <c r="BN7" s="6"/>
       <c r="BO7" s="6"/>
       <c r="BP7" s="7"/>
-      <c r="BQ7" s="31"/>
-      <c r="BR7" s="32"/>
-      <c r="BS7" s="32"/>
-      <c r="BT7" s="32"/>
-      <c r="BU7" s="32"/>
-      <c r="BV7" s="32"/>
-      <c r="BW7" s="32"/>
-      <c r="BX7" s="32"/>
-      <c r="BY7" s="32"/>
-      <c r="BZ7" s="32"/>
-      <c r="CA7" s="32"/>
-      <c r="CB7" s="33"/>
+      <c r="BQ7" s="23"/>
+      <c r="BR7" s="24"/>
+      <c r="BS7" s="24"/>
+      <c r="BT7" s="24"/>
+      <c r="BU7" s="24"/>
+      <c r="BV7" s="24"/>
+      <c r="BW7" s="24"/>
+      <c r="BX7" s="24"/>
+      <c r="BY7" s="24"/>
+      <c r="BZ7" s="24"/>
+      <c r="CA7" s="24"/>
+      <c r="CB7" s="25"/>
       <c r="CC7" s="5"/>
       <c r="CD7" s="6"/>
       <c r="CE7" s="6"/>
@@ -989,8 +950,8 @@
       <c r="CH7" s="19"/>
       <c r="CI7" s="19"/>
       <c r="CJ7" s="19"/>
-      <c r="CK7" s="31"/>
-      <c r="CL7" s="33"/>
+      <c r="CK7" s="23"/>
+      <c r="CL7" s="25"/>
       <c r="CM7" s="8"/>
       <c r="CN7" s="8"/>
     </row>
@@ -1030,23 +991,21 @@
       <c r="AJ10" s="2"/>
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
-      <c r="AM10" s="37"/>
-      <c r="AN10" s="37"/>
-      <c r="AP10" s="28"/>
-      <c r="AQ10" s="30"/>
-      <c r="AR10" s="37"/>
-      <c r="AS10" s="52"/>
-      <c r="AT10" s="28"/>
-      <c r="AU10" s="29"/>
-      <c r="AV10" s="29"/>
-      <c r="AW10" s="29"/>
-      <c r="AX10" s="29"/>
-      <c r="AY10" s="29"/>
-      <c r="AZ10" s="30"/>
-      <c r="BA10" s="29"/>
-      <c r="BB10" s="30"/>
-      <c r="BC10" s="54"/>
-      <c r="BD10" s="54"/>
+      <c r="AM10" s="29"/>
+      <c r="AN10" s="29"/>
+      <c r="AP10" s="26"/>
+      <c r="AQ10" s="28"/>
+      <c r="AR10" s="29"/>
+      <c r="AS10" s="2"/>
+      <c r="AT10" s="26"/>
+      <c r="AU10" s="27"/>
+      <c r="AV10" s="27"/>
+      <c r="AW10" s="27"/>
+      <c r="AX10" s="27"/>
+      <c r="AY10" s="27"/>
+      <c r="AZ10" s="28"/>
+      <c r="BA10" s="27"/>
+      <c r="BB10" s="28"/>
       <c r="BE10" s="2"/>
       <c r="BF10" s="2"/>
       <c r="BG10" s="2"/>
@@ -1113,23 +1072,20 @@
       <c r="AJ11" s="13"/>
       <c r="AK11" s="13"/>
       <c r="AL11" s="13"/>
-      <c r="AM11" s="39"/>
-      <c r="AN11" s="39"/>
-      <c r="AP11" s="34"/>
-      <c r="AQ11" s="36"/>
-      <c r="AR11" s="39"/>
-      <c r="AS11" s="51"/>
-      <c r="AT11" s="34"/>
-      <c r="AU11" s="50"/>
-      <c r="AV11" s="50"/>
-      <c r="AW11" s="50"/>
-      <c r="AX11" s="50"/>
-      <c r="AY11" s="50"/>
-      <c r="AZ11" s="36"/>
-      <c r="BA11" s="50"/>
-      <c r="BB11" s="36"/>
-      <c r="BC11" s="54"/>
-      <c r="BD11" s="54"/>
+      <c r="AM11" s="30"/>
+      <c r="AN11" s="30"/>
+      <c r="AP11" s="20"/>
+      <c r="AQ11" s="22"/>
+      <c r="AR11" s="30"/>
+      <c r="AT11" s="20"/>
+      <c r="AU11" s="21"/>
+      <c r="AV11" s="21"/>
+      <c r="AW11" s="21"/>
+      <c r="AX11" s="21"/>
+      <c r="AY11" s="21"/>
+      <c r="AZ11" s="22"/>
+      <c r="BA11" s="21"/>
+      <c r="BB11" s="22"/>
       <c r="BE11" s="13"/>
       <c r="BF11" s="13"/>
       <c r="BG11" s="13"/>
@@ -1196,22 +1152,19 @@
       <c r="AJ12" s="2"/>
       <c r="AK12" s="2"/>
       <c r="AL12" s="2"/>
-      <c r="AM12" s="37"/>
-      <c r="AN12" s="37"/>
-      <c r="AP12" s="34"/>
-      <c r="AQ12" s="36"/>
-      <c r="AS12" s="51"/>
-      <c r="AT12" s="34"/>
-      <c r="AU12" s="50"/>
-      <c r="AV12" s="50"/>
-      <c r="AW12" s="50"/>
-      <c r="AX12" s="50"/>
-      <c r="AY12" s="50"/>
-      <c r="AZ12" s="36"/>
-      <c r="BA12" s="50"/>
-      <c r="BB12" s="36"/>
-      <c r="BC12" s="54"/>
-      <c r="BD12" s="54"/>
+      <c r="AM12" s="29"/>
+      <c r="AN12" s="29"/>
+      <c r="AP12" s="20"/>
+      <c r="AQ12" s="22"/>
+      <c r="AT12" s="20"/>
+      <c r="AU12" s="21"/>
+      <c r="AV12" s="21"/>
+      <c r="AW12" s="21"/>
+      <c r="AX12" s="21"/>
+      <c r="AY12" s="21"/>
+      <c r="AZ12" s="22"/>
+      <c r="BA12" s="21"/>
+      <c r="BB12" s="22"/>
       <c r="BE12" s="2"/>
       <c r="BF12" s="2"/>
       <c r="BG12" s="2"/>
@@ -1278,22 +1231,19 @@
       <c r="AJ13" s="3"/>
       <c r="AK13" s="3"/>
       <c r="AL13" s="3"/>
-      <c r="AM13" s="39"/>
-      <c r="AN13" s="39"/>
-      <c r="AP13" s="31"/>
-      <c r="AQ13" s="33"/>
-      <c r="AS13" s="51"/>
-      <c r="AT13" s="34"/>
-      <c r="AU13" s="50"/>
-      <c r="AV13" s="50"/>
-      <c r="AW13" s="50"/>
-      <c r="AX13" s="50"/>
-      <c r="AY13" s="50"/>
-      <c r="AZ13" s="36"/>
-      <c r="BA13" s="32"/>
-      <c r="BB13" s="33"/>
-      <c r="BC13" s="54"/>
-      <c r="BD13" s="54"/>
+      <c r="AM13" s="30"/>
+      <c r="AN13" s="30"/>
+      <c r="AP13" s="23"/>
+      <c r="AQ13" s="25"/>
+      <c r="AT13" s="20"/>
+      <c r="AU13" s="21"/>
+      <c r="AV13" s="21"/>
+      <c r="AW13" s="21"/>
+      <c r="AX13" s="21"/>
+      <c r="AY13" s="21"/>
+      <c r="AZ13" s="22"/>
+      <c r="BA13" s="24"/>
+      <c r="BB13" s="25"/>
       <c r="BE13" s="3"/>
       <c r="BF13" s="3"/>
       <c r="BG13" s="3"/>
@@ -1353,7 +1303,7 @@
       <c r="AC14" s="19"/>
       <c r="AD14" s="19"/>
       <c r="AE14" s="19"/>
-      <c r="AF14" s="21"/>
+      <c r="AF14" s="32"/>
       <c r="AG14" s="11"/>
       <c r="AH14" s="16"/>
       <c r="AI14" s="16"/>
@@ -1361,16 +1311,14 @@
       <c r="AK14" s="16"/>
       <c r="AL14" s="16"/>
       <c r="AM14" s="16"/>
-      <c r="AN14" s="54"/>
       <c r="AO14" s="16"/>
-      <c r="AS14" s="51"/>
-      <c r="AT14" s="34"/>
-      <c r="AU14" s="50"/>
-      <c r="AV14" s="50"/>
-      <c r="AW14" s="50"/>
-      <c r="AX14" s="50"/>
-      <c r="AY14" s="50"/>
-      <c r="AZ14" s="36"/>
+      <c r="AT14" s="20"/>
+      <c r="AU14" s="21"/>
+      <c r="AV14" s="21"/>
+      <c r="AW14" s="21"/>
+      <c r="AX14" s="21"/>
+      <c r="AY14" s="21"/>
+      <c r="AZ14" s="22"/>
       <c r="BA14" s="16"/>
       <c r="BB14" s="16"/>
       <c r="BC14" s="16"/>
@@ -1383,7 +1331,7 @@
       <c r="BJ14" s="16"/>
       <c r="BK14" s="16"/>
       <c r="BL14" s="9"/>
-      <c r="BM14" s="40"/>
+      <c r="BM14" s="31"/>
       <c r="BN14" s="19"/>
       <c r="BO14" s="19"/>
       <c r="BP14" s="19"/>
@@ -1435,14 +1383,13 @@
       <c r="AD15" s="19"/>
       <c r="AE15" s="19"/>
       <c r="AF15" s="19"/>
-      <c r="AS15" s="51"/>
-      <c r="AT15" s="34"/>
-      <c r="AU15" s="50"/>
-      <c r="AV15" s="50"/>
-      <c r="AW15" s="50"/>
-      <c r="AX15" s="50"/>
-      <c r="AY15" s="50"/>
-      <c r="AZ15" s="36"/>
+      <c r="AT15" s="20"/>
+      <c r="AU15" s="21"/>
+      <c r="AV15" s="21"/>
+      <c r="AW15" s="21"/>
+      <c r="AX15" s="21"/>
+      <c r="AY15" s="21"/>
+      <c r="AZ15" s="22"/>
       <c r="BM15" s="19"/>
       <c r="BN15" s="19"/>
       <c r="BO15" s="19"/>
@@ -1473,252 +1420,509 @@
       <c r="CN15" s="8"/>
     </row>
     <row r="16" spans="11:92" ht="6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="AS16" s="51"/>
-      <c r="AT16" s="31"/>
-      <c r="AU16" s="32"/>
-      <c r="AV16" s="32"/>
-      <c r="AW16" s="32"/>
-      <c r="AX16" s="32"/>
-      <c r="AY16" s="32"/>
-      <c r="AZ16" s="33"/>
+      <c r="AT16" s="23"/>
+      <c r="AU16" s="24"/>
+      <c r="AV16" s="24"/>
+      <c r="AW16" s="24"/>
+      <c r="AX16" s="24"/>
+      <c r="AY16" s="24"/>
+      <c r="AZ16" s="25"/>
     </row>
     <row r="21" spans="11:90" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="AO21" s="51"/>
-      <c r="AP21" s="28"/>
-      <c r="AQ21" s="29"/>
-      <c r="AR21" s="29"/>
-      <c r="AS21" s="29"/>
-      <c r="AT21" s="29"/>
-      <c r="AU21" s="30"/>
-      <c r="AV21" s="28"/>
-      <c r="AW21" s="29"/>
-      <c r="AX21" s="29"/>
-      <c r="AY21" s="29"/>
-      <c r="AZ21" s="29"/>
-      <c r="BA21" s="30"/>
-      <c r="BB21" s="28"/>
-      <c r="BC21" s="29"/>
-      <c r="BD21" s="30"/>
-      <c r="BE21" s="29"/>
-      <c r="BF21" s="29"/>
-      <c r="BG21" s="29"/>
-      <c r="BH21" s="29"/>
-      <c r="BI21" s="29"/>
-      <c r="BJ21" s="29"/>
-      <c r="BK21" s="29"/>
-      <c r="BL21" s="30"/>
-      <c r="BM21" s="29"/>
-      <c r="BN21" s="29"/>
-      <c r="BO21" s="29"/>
-      <c r="BP21" s="29"/>
-      <c r="BQ21" s="28"/>
-      <c r="BR21" s="29"/>
-      <c r="BS21" s="29"/>
-      <c r="BT21" s="30"/>
-      <c r="BU21" s="28"/>
-      <c r="BV21" s="29"/>
-      <c r="BW21" s="29"/>
-      <c r="BX21" s="29"/>
-      <c r="BY21" s="29"/>
-      <c r="BZ21" s="29"/>
-      <c r="CA21" s="29"/>
-      <c r="CB21" s="30"/>
-      <c r="CC21" s="28"/>
-      <c r="CD21" s="29"/>
-      <c r="CE21" s="29"/>
-      <c r="CF21" s="30"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="21"/>
+      <c r="AA21" s="21"/>
+      <c r="AB21" s="21"/>
+      <c r="AC21" s="21"/>
+      <c r="AD21" s="21"/>
+      <c r="AE21" s="21"/>
+      <c r="AF21" s="21"/>
+      <c r="AG21" s="21"/>
+      <c r="AH21" s="21"/>
+      <c r="AI21" s="21"/>
+      <c r="AJ21" s="21"/>
+      <c r="AK21" s="21"/>
+      <c r="AL21" s="21"/>
+      <c r="AM21" s="21"/>
+      <c r="AN21" s="21"/>
+      <c r="AO21" s="22"/>
+      <c r="AP21" s="26"/>
+      <c r="AQ21" s="27"/>
+      <c r="AR21" s="27"/>
+      <c r="AS21" s="27"/>
+      <c r="AT21" s="27"/>
+      <c r="AU21" s="28"/>
+      <c r="AV21" s="26"/>
+      <c r="AW21" s="27"/>
+      <c r="AX21" s="27"/>
+      <c r="AY21" s="27"/>
+      <c r="AZ21" s="27"/>
+      <c r="BA21" s="28"/>
+      <c r="BB21" s="26"/>
+      <c r="BC21" s="27"/>
+      <c r="BD21" s="28"/>
+      <c r="BE21" s="27"/>
+      <c r="BF21" s="27"/>
+      <c r="BG21" s="27"/>
+      <c r="BH21" s="27"/>
+      <c r="BI21" s="27"/>
+      <c r="BJ21" s="27"/>
+      <c r="BK21" s="27"/>
+      <c r="BL21" s="28"/>
+      <c r="BM21" s="27"/>
+      <c r="BN21" s="27"/>
+      <c r="BO21" s="27"/>
+      <c r="BP21" s="27"/>
+      <c r="BQ21" s="26"/>
+      <c r="BR21" s="27"/>
+      <c r="BS21" s="27"/>
+      <c r="BT21" s="28"/>
+      <c r="BU21" s="26"/>
+      <c r="BV21" s="27"/>
+      <c r="BW21" s="27"/>
+      <c r="BX21" s="27"/>
+      <c r="BY21" s="27"/>
+      <c r="BZ21" s="27"/>
+      <c r="CA21" s="27"/>
+      <c r="CB21" s="28"/>
+      <c r="CC21" s="26"/>
+      <c r="CD21" s="27"/>
+      <c r="CE21" s="27"/>
+      <c r="CF21" s="28"/>
       <c r="CG21" s="19"/>
       <c r="CH21" s="19"/>
       <c r="CI21" s="19"/>
       <c r="CJ21" s="19"/>
+      <c r="CK21" s="20"/>
+      <c r="CL21" s="21"/>
     </row>
     <row r="22" spans="11:90" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="AO22" s="51"/>
-      <c r="AP22" s="31"/>
-      <c r="AQ22" s="32"/>
-      <c r="AR22" s="32"/>
-      <c r="AS22" s="32"/>
-      <c r="AT22" s="32"/>
-      <c r="AU22" s="33"/>
-      <c r="AV22" s="31"/>
-      <c r="AW22" s="32"/>
-      <c r="AX22" s="32"/>
-      <c r="AY22" s="32"/>
-      <c r="AZ22" s="32"/>
-      <c r="BA22" s="33"/>
-      <c r="BB22" s="31"/>
-      <c r="BC22" s="32"/>
-      <c r="BD22" s="33"/>
-      <c r="BE22" s="50"/>
-      <c r="BF22" s="35"/>
-      <c r="BG22" s="35"/>
-      <c r="BH22" s="35"/>
-      <c r="BI22" s="35"/>
-      <c r="BJ22" s="35"/>
-      <c r="BK22" s="35"/>
-      <c r="BL22" s="36"/>
-      <c r="BM22" s="35"/>
-      <c r="BN22" s="35"/>
-      <c r="BO22" s="35"/>
-      <c r="BP22" s="35"/>
-      <c r="BQ22" s="34"/>
-      <c r="BR22" s="35"/>
-      <c r="BS22" s="35"/>
-      <c r="BT22" s="36"/>
-      <c r="BU22" s="34"/>
-      <c r="BV22" s="35"/>
-      <c r="BW22" s="35"/>
-      <c r="BX22" s="35"/>
-      <c r="BY22" s="35"/>
-      <c r="BZ22" s="35"/>
-      <c r="CA22" s="35"/>
-      <c r="CB22" s="36"/>
-      <c r="CC22" s="34"/>
-      <c r="CD22" s="35"/>
-      <c r="CE22" s="35"/>
-      <c r="CF22" s="36"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="24"/>
+      <c r="V22" s="24"/>
+      <c r="W22" s="24"/>
+      <c r="X22" s="24"/>
+      <c r="Y22" s="24"/>
+      <c r="Z22" s="24"/>
+      <c r="AA22" s="24"/>
+      <c r="AB22" s="24"/>
+      <c r="AC22" s="24"/>
+      <c r="AD22" s="24"/>
+      <c r="AE22" s="24"/>
+      <c r="AF22" s="24"/>
+      <c r="AG22" s="24"/>
+      <c r="AH22" s="24"/>
+      <c r="AI22" s="24"/>
+      <c r="AJ22" s="24"/>
+      <c r="AK22" s="24"/>
+      <c r="AL22" s="24"/>
+      <c r="AM22" s="24"/>
+      <c r="AN22" s="24"/>
+      <c r="AO22" s="25"/>
+      <c r="AP22" s="23"/>
+      <c r="AQ22" s="24"/>
+      <c r="AR22" s="24"/>
+      <c r="AS22" s="24"/>
+      <c r="AT22" s="24"/>
+      <c r="AU22" s="25"/>
+      <c r="AV22" s="23"/>
+      <c r="AW22" s="24"/>
+      <c r="AX22" s="24"/>
+      <c r="AY22" s="24"/>
+      <c r="AZ22" s="24"/>
+      <c r="BA22" s="25"/>
+      <c r="BB22" s="23"/>
+      <c r="BC22" s="24"/>
+      <c r="BD22" s="25"/>
+      <c r="BE22" s="21"/>
+      <c r="BF22" s="21"/>
+      <c r="BG22" s="21"/>
+      <c r="BH22" s="21"/>
+      <c r="BI22" s="21"/>
+      <c r="BJ22" s="21"/>
+      <c r="BK22" s="21"/>
+      <c r="BL22" s="22"/>
+      <c r="BM22" s="21"/>
+      <c r="BN22" s="21"/>
+      <c r="BO22" s="21"/>
+      <c r="BP22" s="21"/>
+      <c r="BQ22" s="20"/>
+      <c r="BR22" s="21"/>
+      <c r="BS22" s="21"/>
+      <c r="BT22" s="22"/>
+      <c r="BU22" s="20"/>
+      <c r="BV22" s="21"/>
+      <c r="BW22" s="21"/>
+      <c r="BX22" s="21"/>
+      <c r="BY22" s="21"/>
+      <c r="BZ22" s="21"/>
+      <c r="CA22" s="21"/>
+      <c r="CB22" s="22"/>
+      <c r="CC22" s="20"/>
+      <c r="CD22" s="21"/>
+      <c r="CE22" s="21"/>
+      <c r="CF22" s="22"/>
       <c r="CG22" s="19"/>
       <c r="CH22" s="19"/>
       <c r="CI22" s="19"/>
       <c r="CJ22" s="19"/>
+      <c r="CK22" s="23"/>
+      <c r="CL22" s="24"/>
     </row>
     <row r="23" spans="11:90" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K23" s="19"/>
       <c r="L23" s="19"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="28"/>
-      <c r="V23" s="29"/>
-      <c r="W23" s="29"/>
-      <c r="X23" s="30"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="37"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="28"/>
       <c r="Y23" s="19"/>
       <c r="Z23" s="19"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="19"/>
-      <c r="AC23" s="22"/>
-      <c r="AD23" s="23"/>
-      <c r="AE23" s="23"/>
-      <c r="AF23" s="24"/>
-      <c r="AG23" s="28"/>
-      <c r="AH23" s="29"/>
-      <c r="AI23" s="29"/>
-      <c r="AJ23" s="29"/>
-      <c r="AK23" s="29"/>
-      <c r="AL23" s="30"/>
-      <c r="AM23" s="28"/>
-      <c r="AN23" s="30"/>
-      <c r="AO23" s="37"/>
-      <c r="BE23" s="34"/>
-      <c r="BF23" s="35"/>
-      <c r="BG23" s="35"/>
-      <c r="BH23" s="35"/>
-      <c r="BI23" s="35"/>
-      <c r="BJ23" s="35"/>
-      <c r="BK23" s="35"/>
-      <c r="BL23" s="36"/>
-      <c r="BM23" s="32"/>
-      <c r="BN23" s="32"/>
-      <c r="BO23" s="32"/>
-      <c r="BP23" s="32"/>
-      <c r="BQ23" s="34"/>
-      <c r="BR23" s="35"/>
-      <c r="BS23" s="35"/>
-      <c r="BT23" s="36"/>
-      <c r="BU23" s="34"/>
-      <c r="BV23" s="35"/>
-      <c r="BW23" s="35"/>
-      <c r="BX23" s="35"/>
-      <c r="BY23" s="35"/>
-      <c r="BZ23" s="35"/>
-      <c r="CA23" s="35"/>
-      <c r="CB23" s="36"/>
-      <c r="CC23" s="31"/>
-      <c r="CD23" s="32"/>
-      <c r="CE23" s="32"/>
-      <c r="CF23" s="33"/>
+      <c r="AC23" s="35"/>
+      <c r="AD23" s="36"/>
+      <c r="AE23" s="36"/>
+      <c r="AF23" s="37"/>
+      <c r="AG23" s="26"/>
+      <c r="AH23" s="27"/>
+      <c r="AI23" s="27"/>
+      <c r="AJ23" s="27"/>
+      <c r="AK23" s="27"/>
+      <c r="AL23" s="28"/>
+      <c r="AM23" s="26"/>
+      <c r="AN23" s="28"/>
+      <c r="AO23" s="29"/>
+      <c r="AP23" s="27"/>
+      <c r="AQ23" s="27"/>
+      <c r="AR23" s="27"/>
+      <c r="AS23" s="27"/>
+      <c r="AT23" s="27"/>
+      <c r="AU23" s="27"/>
+      <c r="AV23" s="27"/>
+      <c r="AW23" s="27"/>
+      <c r="AX23" s="27"/>
+      <c r="AY23" s="27"/>
+      <c r="AZ23" s="27"/>
+      <c r="BA23" s="27"/>
+      <c r="BB23" s="27"/>
+      <c r="BC23" s="27"/>
+      <c r="BD23" s="27"/>
+      <c r="BE23" s="20"/>
+      <c r="BF23" s="21"/>
+      <c r="BG23" s="21"/>
+      <c r="BH23" s="21"/>
+      <c r="BI23" s="21"/>
+      <c r="BJ23" s="21"/>
+      <c r="BK23" s="21"/>
+      <c r="BL23" s="22"/>
+      <c r="BM23" s="24"/>
+      <c r="BN23" s="24"/>
+      <c r="BO23" s="24"/>
+      <c r="BP23" s="24"/>
+      <c r="BQ23" s="20"/>
+      <c r="BR23" s="21"/>
+      <c r="BS23" s="21"/>
+      <c r="BT23" s="22"/>
+      <c r="BU23" s="20"/>
+      <c r="BV23" s="21"/>
+      <c r="BW23" s="21"/>
+      <c r="BX23" s="21"/>
+      <c r="BY23" s="21"/>
+      <c r="BZ23" s="21"/>
+      <c r="CA23" s="21"/>
+      <c r="CB23" s="22"/>
+      <c r="CC23" s="23"/>
+      <c r="CD23" s="24"/>
+      <c r="CE23" s="24"/>
+      <c r="CF23" s="25"/>
       <c r="CG23" s="19"/>
       <c r="CH23" s="19"/>
       <c r="CI23" s="19"/>
       <c r="CJ23" s="19"/>
-      <c r="CK23" s="40"/>
+      <c r="CK23" s="31"/>
       <c r="CL23" s="19"/>
     </row>
     <row r="24" spans="11:90" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K24" s="19"/>
       <c r="L24" s="19"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="31"/>
-      <c r="V24" s="32"/>
-      <c r="W24" s="32"/>
-      <c r="X24" s="33"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="24"/>
+      <c r="X24" s="25"/>
       <c r="Y24" s="19"/>
       <c r="Z24" s="19"/>
       <c r="AA24" s="19"/>
       <c r="AB24" s="19"/>
-      <c r="AC24" s="25"/>
-      <c r="AD24" s="26"/>
-      <c r="AE24" s="26"/>
-      <c r="AF24" s="27"/>
-      <c r="AG24" s="31"/>
-      <c r="AH24" s="32"/>
-      <c r="AI24" s="32"/>
-      <c r="AJ24" s="32"/>
-      <c r="AK24" s="32"/>
-      <c r="AL24" s="33"/>
-      <c r="AM24" s="31"/>
-      <c r="AN24" s="33"/>
-      <c r="AO24" s="39"/>
-      <c r="BE24" s="31"/>
-      <c r="BF24" s="32"/>
-      <c r="BG24" s="32"/>
-      <c r="BH24" s="32"/>
-      <c r="BI24" s="32"/>
-      <c r="BJ24" s="32"/>
-      <c r="BK24" s="32"/>
-      <c r="BL24" s="33"/>
-      <c r="BQ24" s="31"/>
-      <c r="BR24" s="32"/>
-      <c r="BS24" s="32"/>
-      <c r="BT24" s="33"/>
-      <c r="BU24" s="31"/>
-      <c r="BV24" s="32"/>
-      <c r="BW24" s="32"/>
-      <c r="BX24" s="32"/>
-      <c r="BY24" s="32"/>
-      <c r="BZ24" s="32"/>
-      <c r="CA24" s="32"/>
-      <c r="CB24" s="33"/>
+      <c r="AC24" s="38"/>
+      <c r="AD24" s="39"/>
+      <c r="AE24" s="39"/>
+      <c r="AF24" s="40"/>
+      <c r="AG24" s="23"/>
+      <c r="AH24" s="24"/>
+      <c r="AI24" s="24"/>
+      <c r="AJ24" s="24"/>
+      <c r="AK24" s="24"/>
+      <c r="AL24" s="25"/>
+      <c r="AM24" s="23"/>
+      <c r="AN24" s="25"/>
+      <c r="AO24" s="30"/>
+      <c r="AP24" s="21"/>
+      <c r="AQ24" s="21"/>
+      <c r="AR24" s="21"/>
+      <c r="AS24" s="21"/>
+      <c r="AT24" s="21"/>
+      <c r="AU24" s="21"/>
+      <c r="AV24" s="21"/>
+      <c r="AW24" s="21"/>
+      <c r="AX24" s="21"/>
+      <c r="AY24" s="21"/>
+      <c r="AZ24" s="21"/>
+      <c r="BA24" s="21"/>
+      <c r="BB24" s="21"/>
+      <c r="BC24" s="21"/>
+      <c r="BD24" s="21"/>
+      <c r="BE24" s="23"/>
+      <c r="BF24" s="24"/>
+      <c r="BG24" s="24"/>
+      <c r="BH24" s="24"/>
+      <c r="BI24" s="24"/>
+      <c r="BJ24" s="24"/>
+      <c r="BK24" s="24"/>
+      <c r="BL24" s="25"/>
+      <c r="BM24" s="26"/>
+      <c r="BN24" s="27"/>
+      <c r="BO24" s="27"/>
+      <c r="BP24" s="28"/>
+      <c r="BQ24" s="23"/>
+      <c r="BR24" s="24"/>
+      <c r="BS24" s="24"/>
+      <c r="BT24" s="25"/>
+      <c r="BU24" s="23"/>
+      <c r="BV24" s="24"/>
+      <c r="BW24" s="24"/>
+      <c r="BX24" s="24"/>
+      <c r="BY24" s="24"/>
+      <c r="BZ24" s="24"/>
+      <c r="CA24" s="24"/>
+      <c r="CB24" s="25"/>
+      <c r="CC24" s="26"/>
+      <c r="CD24" s="27"/>
+      <c r="CE24" s="27"/>
+      <c r="CF24" s="28"/>
       <c r="CG24" s="19"/>
       <c r="CH24" s="19"/>
       <c r="CI24" s="19"/>
       <c r="CJ24" s="19"/>
-      <c r="CK24" s="40"/>
+      <c r="CK24" s="31"/>
       <c r="CL24" s="19"/>
     </row>
     <row r="25" spans="11:90" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="K25" s="12"/>
-      <c r="CL25" s="10"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="27"/>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="27"/>
+      <c r="AC25" s="27"/>
+      <c r="AD25" s="27"/>
+      <c r="AE25" s="27"/>
+      <c r="AF25" s="27"/>
+      <c r="AG25" s="27"/>
+      <c r="AH25" s="27"/>
+      <c r="AI25" s="27"/>
+      <c r="AJ25" s="27"/>
+      <c r="AK25" s="27"/>
+      <c r="AL25" s="27"/>
+      <c r="AM25" s="27"/>
+      <c r="AN25" s="27"/>
+      <c r="AO25" s="27"/>
+      <c r="AP25" s="21"/>
+      <c r="AQ25" s="21"/>
+      <c r="AR25" s="21"/>
+      <c r="AS25" s="21"/>
+      <c r="AT25" s="21"/>
+      <c r="AU25" s="21"/>
+      <c r="AV25" s="21"/>
+      <c r="AW25" s="21"/>
+      <c r="AX25" s="21"/>
+      <c r="AY25" s="21"/>
+      <c r="AZ25" s="21"/>
+      <c r="BA25" s="21"/>
+      <c r="BB25" s="21"/>
+      <c r="BC25" s="21"/>
+      <c r="BD25" s="21"/>
+      <c r="BE25" s="21"/>
+      <c r="BF25" s="21"/>
+      <c r="BG25" s="21"/>
+      <c r="BH25" s="21"/>
+      <c r="BI25" s="21"/>
+      <c r="BJ25" s="21"/>
+      <c r="BK25" s="21"/>
+      <c r="BL25" s="21"/>
+      <c r="BM25" s="21"/>
+      <c r="BN25" s="21"/>
+      <c r="BO25" s="21"/>
+      <c r="BP25" s="21"/>
+      <c r="BQ25" s="21"/>
+      <c r="BR25" s="21"/>
+      <c r="BS25" s="21"/>
+      <c r="BT25" s="21"/>
+      <c r="BU25" s="21"/>
+      <c r="BV25" s="21"/>
+      <c r="BW25" s="21"/>
+      <c r="BX25" s="21"/>
+      <c r="BY25" s="21"/>
+      <c r="BZ25" s="21"/>
+      <c r="CA25" s="21"/>
+      <c r="CB25" s="21"/>
+      <c r="CC25" s="21"/>
+      <c r="CD25" s="21"/>
+      <c r="CE25" s="21"/>
+      <c r="CF25" s="21"/>
+      <c r="CG25" s="21"/>
+      <c r="CH25" s="21"/>
+      <c r="CI25" s="21"/>
+      <c r="CJ25" s="21"/>
+      <c r="CK25" s="27"/>
+      <c r="CL25" s="28"/>
     </row>
     <row r="26" spans="11:90" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="K26" s="12"/>
-      <c r="CL26" s="10"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="42"/>
+      <c r="T26" s="42"/>
+      <c r="U26" s="42"/>
+      <c r="V26" s="42"/>
+      <c r="W26" s="42"/>
+      <c r="X26" s="42"/>
+      <c r="Y26" s="42"/>
+      <c r="Z26" s="42"/>
+      <c r="AA26" s="42"/>
+      <c r="AB26" s="42"/>
+      <c r="AC26" s="42"/>
+      <c r="AD26" s="42"/>
+      <c r="AE26" s="42"/>
+      <c r="AF26" s="42"/>
+      <c r="AG26" s="42"/>
+      <c r="AH26" s="42"/>
+      <c r="AI26" s="42"/>
+      <c r="AJ26" s="42"/>
+      <c r="AK26" s="42"/>
+      <c r="AL26" s="42"/>
+      <c r="AM26" s="42"/>
+      <c r="AN26" s="42"/>
+      <c r="AO26" s="42"/>
+      <c r="AP26" s="21"/>
+      <c r="AQ26" s="21"/>
+      <c r="AR26" s="21"/>
+      <c r="AS26" s="21"/>
+      <c r="AT26" s="21"/>
+      <c r="AU26" s="21"/>
+      <c r="AV26" s="21"/>
+      <c r="AW26" s="21"/>
+      <c r="AX26" s="21"/>
+      <c r="AY26" s="21"/>
+      <c r="AZ26" s="21"/>
+      <c r="BA26" s="21"/>
+      <c r="BB26" s="21"/>
+      <c r="BC26" s="21"/>
+      <c r="BD26" s="21"/>
+      <c r="BE26" s="24"/>
+      <c r="BF26" s="24"/>
+      <c r="BG26" s="24"/>
+      <c r="BH26" s="24"/>
+      <c r="BI26" s="24"/>
+      <c r="BJ26" s="24"/>
+      <c r="BK26" s="24"/>
+      <c r="BL26" s="24"/>
+      <c r="BM26" s="24"/>
+      <c r="BN26" s="24"/>
+      <c r="BO26" s="24"/>
+      <c r="BP26" s="24"/>
+      <c r="BQ26" s="24"/>
+      <c r="BR26" s="24"/>
+      <c r="BS26" s="24"/>
+      <c r="BT26" s="24"/>
+      <c r="BU26" s="24"/>
+      <c r="BV26" s="24"/>
+      <c r="BW26" s="24"/>
+      <c r="BX26" s="24"/>
+      <c r="BY26" s="24"/>
+      <c r="BZ26" s="24"/>
+      <c r="CA26" s="24"/>
+      <c r="CB26" s="24"/>
+      <c r="CC26" s="24"/>
+      <c r="CD26" s="24"/>
+      <c r="CE26" s="24"/>
+      <c r="CF26" s="24"/>
+      <c r="CG26" s="24"/>
+      <c r="CH26" s="24"/>
+      <c r="CI26" s="24"/>
+      <c r="CJ26" s="24"/>
+      <c r="CK26" s="21"/>
+      <c r="CL26" s="22"/>
     </row>
     <row r="27" spans="11:90" ht="6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="K27" s="5"/>
-      <c r="L27" s="6"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="25"/>
       <c r="M27" s="19"/>
       <c r="N27" s="19"/>
       <c r="O27" s="19"/>
@@ -1739,38 +1943,38 @@
       <c r="AD27" s="19"/>
       <c r="AE27" s="19"/>
       <c r="AF27" s="19"/>
-      <c r="AG27" s="40"/>
+      <c r="AG27" s="31"/>
       <c r="AH27" s="19"/>
-      <c r="AI27" s="37"/>
-      <c r="AJ27" s="14"/>
-      <c r="AK27" s="14"/>
+      <c r="AI27" s="29"/>
+      <c r="AJ27" s="29"/>
+      <c r="AK27" s="29"/>
       <c r="AL27" s="19"/>
-      <c r="AM27" s="37"/>
-      <c r="AN27" s="37"/>
-      <c r="AO27" s="51"/>
-      <c r="AP27" s="41"/>
-      <c r="AQ27" s="30"/>
-      <c r="AR27" s="30"/>
-      <c r="AS27" s="52"/>
-      <c r="AT27" s="28"/>
-      <c r="AU27" s="29"/>
-      <c r="AV27" s="29"/>
-      <c r="AW27" s="29"/>
-      <c r="AX27" s="29"/>
-      <c r="AY27" s="29"/>
-      <c r="AZ27" s="30"/>
-      <c r="BA27" s="28"/>
-      <c r="BB27" s="30"/>
-      <c r="BC27" s="51"/>
-      <c r="BD27" s="51"/>
-      <c r="BE27" s="37"/>
-      <c r="BF27" s="37"/>
-      <c r="BG27" s="37"/>
-      <c r="BH27" s="37"/>
-      <c r="BI27" s="37"/>
-      <c r="BJ27" s="37"/>
-      <c r="BK27" s="37"/>
-      <c r="BL27" s="37"/>
+      <c r="AM27" s="29"/>
+      <c r="AN27" s="29"/>
+      <c r="AO27" s="41"/>
+      <c r="AP27" s="26"/>
+      <c r="AQ27" s="28"/>
+      <c r="AR27" s="28"/>
+      <c r="AS27" s="28"/>
+      <c r="AT27" s="26"/>
+      <c r="AU27" s="27"/>
+      <c r="AV27" s="27"/>
+      <c r="AW27" s="27"/>
+      <c r="AX27" s="27"/>
+      <c r="AY27" s="27"/>
+      <c r="AZ27" s="28"/>
+      <c r="BA27" s="26"/>
+      <c r="BB27" s="28"/>
+      <c r="BC27" s="20"/>
+      <c r="BD27" s="22"/>
+      <c r="BE27" s="29"/>
+      <c r="BF27" s="29"/>
+      <c r="BG27" s="29"/>
+      <c r="BH27" s="29"/>
+      <c r="BI27" s="29"/>
+      <c r="BJ27" s="29"/>
+      <c r="BK27" s="29"/>
+      <c r="BL27" s="29"/>
       <c r="BM27" s="19"/>
       <c r="BN27" s="19"/>
       <c r="BO27" s="19"/>
@@ -1795,8 +1999,8 @@
       <c r="CH27" s="19"/>
       <c r="CI27" s="19"/>
       <c r="CJ27" s="19"/>
-      <c r="CK27" s="6"/>
-      <c r="CL27" s="7"/>
+      <c r="CK27" s="24"/>
+      <c r="CL27" s="25"/>
     </row>
     <row r="28" spans="11:90" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K28" s="1"/>
@@ -1821,38 +2025,38 @@
       <c r="AD28" s="19"/>
       <c r="AE28" s="19"/>
       <c r="AF28" s="19"/>
-      <c r="AG28" s="40"/>
+      <c r="AG28" s="31"/>
       <c r="AH28" s="19"/>
-      <c r="AI28" s="39"/>
-      <c r="AJ28" s="15"/>
-      <c r="AK28" s="15"/>
+      <c r="AI28" s="30"/>
+      <c r="AJ28" s="30"/>
+      <c r="AK28" s="30"/>
       <c r="AL28" s="19"/>
-      <c r="AM28" s="39"/>
-      <c r="AN28" s="39"/>
-      <c r="AO28" s="51"/>
-      <c r="AP28" s="47"/>
-      <c r="AQ28" s="36"/>
-      <c r="AR28" s="33"/>
-      <c r="AS28" s="51"/>
-      <c r="AT28" s="34"/>
-      <c r="AU28" s="50"/>
-      <c r="AV28" s="50"/>
-      <c r="AW28" s="50"/>
-      <c r="AX28" s="50"/>
-      <c r="AY28" s="50"/>
-      <c r="AZ28" s="36"/>
-      <c r="BA28" s="34"/>
-      <c r="BB28" s="36"/>
-      <c r="BC28" s="51"/>
-      <c r="BD28" s="51"/>
-      <c r="BE28" s="39"/>
-      <c r="BF28" s="39"/>
-      <c r="BG28" s="39"/>
-      <c r="BH28" s="39"/>
-      <c r="BI28" s="39"/>
-      <c r="BJ28" s="39"/>
-      <c r="BK28" s="39"/>
-      <c r="BL28" s="39"/>
+      <c r="AM28" s="30"/>
+      <c r="AN28" s="30"/>
+      <c r="AO28" s="41"/>
+      <c r="AP28" s="20"/>
+      <c r="AQ28" s="22"/>
+      <c r="AR28" s="25"/>
+      <c r="AS28" s="22"/>
+      <c r="AT28" s="20"/>
+      <c r="AU28" s="21"/>
+      <c r="AV28" s="21"/>
+      <c r="AW28" s="21"/>
+      <c r="AX28" s="21"/>
+      <c r="AY28" s="21"/>
+      <c r="AZ28" s="22"/>
+      <c r="BA28" s="20"/>
+      <c r="BB28" s="22"/>
+      <c r="BC28" s="20"/>
+      <c r="BD28" s="22"/>
+      <c r="BE28" s="30"/>
+      <c r="BF28" s="30"/>
+      <c r="BG28" s="30"/>
+      <c r="BH28" s="30"/>
+      <c r="BI28" s="30"/>
+      <c r="BJ28" s="30"/>
+      <c r="BK28" s="30"/>
+      <c r="BL28" s="30"/>
       <c r="BM28" s="19"/>
       <c r="BN28" s="19"/>
       <c r="BO28" s="19"/>
@@ -1903,37 +2107,38 @@
       <c r="AD29" s="19"/>
       <c r="AE29" s="19"/>
       <c r="AF29" s="19"/>
-      <c r="AG29" s="40"/>
+      <c r="AG29" s="31"/>
       <c r="AH29" s="19"/>
-      <c r="AI29" s="14"/>
-      <c r="AJ29" s="14"/>
-      <c r="AK29" s="14"/>
+      <c r="AI29" s="29"/>
+      <c r="AJ29" s="29"/>
+      <c r="AK29" s="29"/>
       <c r="AL29" s="19"/>
-      <c r="AM29" s="37"/>
-      <c r="AN29" s="37"/>
-      <c r="AO29" s="51"/>
-      <c r="AP29" s="47"/>
-      <c r="AQ29" s="10"/>
-      <c r="AS29" s="51"/>
-      <c r="AT29" s="34"/>
-      <c r="AU29" s="50"/>
-      <c r="AV29" s="50"/>
-      <c r="AW29" s="50"/>
-      <c r="AX29" s="50"/>
-      <c r="AY29" s="50"/>
-      <c r="AZ29" s="36"/>
-      <c r="BA29" s="34"/>
-      <c r="BB29" s="36"/>
-      <c r="BC29" s="51"/>
-      <c r="BD29" s="51"/>
-      <c r="BE29" s="37"/>
-      <c r="BF29" s="37"/>
-      <c r="BG29" s="37"/>
-      <c r="BH29" s="37"/>
-      <c r="BI29" s="37"/>
-      <c r="BJ29" s="37"/>
-      <c r="BK29" s="37"/>
-      <c r="BL29" s="37"/>
+      <c r="AM29" s="29"/>
+      <c r="AN29" s="29"/>
+      <c r="AO29" s="41"/>
+      <c r="AP29" s="20"/>
+      <c r="AQ29" s="22"/>
+      <c r="AR29" s="26"/>
+      <c r="AS29" s="22"/>
+      <c r="AT29" s="20"/>
+      <c r="AU29" s="21"/>
+      <c r="AV29" s="21"/>
+      <c r="AW29" s="21"/>
+      <c r="AX29" s="21"/>
+      <c r="AY29" s="21"/>
+      <c r="AZ29" s="22"/>
+      <c r="BA29" s="20"/>
+      <c r="BB29" s="22"/>
+      <c r="BC29" s="20"/>
+      <c r="BD29" s="22"/>
+      <c r="BE29" s="29"/>
+      <c r="BF29" s="29"/>
+      <c r="BG29" s="29"/>
+      <c r="BH29" s="29"/>
+      <c r="BI29" s="29"/>
+      <c r="BJ29" s="29"/>
+      <c r="BK29" s="29"/>
+      <c r="BL29" s="29"/>
       <c r="BM29" s="19"/>
       <c r="BN29" s="19"/>
       <c r="BO29" s="19"/>
@@ -1984,37 +2189,38 @@
       <c r="AD30" s="19"/>
       <c r="AE30" s="19"/>
       <c r="AF30" s="19"/>
-      <c r="AG30" s="40"/>
+      <c r="AG30" s="31"/>
       <c r="AH30" s="19"/>
-      <c r="AI30" s="39"/>
-      <c r="AJ30" s="15"/>
-      <c r="AK30" s="15"/>
+      <c r="AI30" s="30"/>
+      <c r="AJ30" s="30"/>
+      <c r="AK30" s="30"/>
       <c r="AL30" s="19"/>
-      <c r="AM30" s="39"/>
-      <c r="AN30" s="39"/>
-      <c r="AO30" s="51"/>
-      <c r="AP30" s="44"/>
-      <c r="AQ30" s="7"/>
-      <c r="AS30" s="51"/>
-      <c r="AT30" s="31"/>
-      <c r="AU30" s="32"/>
-      <c r="AV30" s="32"/>
-      <c r="AW30" s="32"/>
-      <c r="AX30" s="32"/>
-      <c r="AY30" s="32"/>
-      <c r="AZ30" s="33"/>
-      <c r="BA30" s="31"/>
-      <c r="BB30" s="33"/>
-      <c r="BC30" s="51"/>
-      <c r="BD30" s="51"/>
-      <c r="BE30" s="39"/>
-      <c r="BF30" s="39"/>
-      <c r="BG30" s="39"/>
-      <c r="BH30" s="39"/>
-      <c r="BI30" s="39"/>
-      <c r="BJ30" s="39"/>
-      <c r="BK30" s="39"/>
-      <c r="BL30" s="39"/>
+      <c r="AM30" s="30"/>
+      <c r="AN30" s="30"/>
+      <c r="AO30" s="30"/>
+      <c r="AP30" s="23"/>
+      <c r="AQ30" s="25"/>
+      <c r="AR30" s="20"/>
+      <c r="AS30" s="22"/>
+      <c r="AT30" s="23"/>
+      <c r="AU30" s="24"/>
+      <c r="AV30" s="24"/>
+      <c r="AW30" s="24"/>
+      <c r="AX30" s="24"/>
+      <c r="AY30" s="24"/>
+      <c r="AZ30" s="25"/>
+      <c r="BA30" s="23"/>
+      <c r="BB30" s="25"/>
+      <c r="BC30" s="23"/>
+      <c r="BD30" s="25"/>
+      <c r="BE30" s="30"/>
+      <c r="BF30" s="30"/>
+      <c r="BG30" s="30"/>
+      <c r="BH30" s="30"/>
+      <c r="BI30" s="30"/>
+      <c r="BJ30" s="30"/>
+      <c r="BK30" s="30"/>
+      <c r="BL30" s="30"/>
       <c r="BM30" s="19"/>
       <c r="BN30" s="19"/>
       <c r="BO30" s="19"/>
@@ -2065,12 +2271,38 @@
       <c r="AD31" s="19"/>
       <c r="AE31" s="19"/>
       <c r="AF31" s="19"/>
-      <c r="AM31" s="16"/>
-      <c r="AN31" s="16"/>
-      <c r="AO31" s="16"/>
-      <c r="BB31" s="16"/>
-      <c r="BC31" s="16"/>
-      <c r="BD31" s="16"/>
+      <c r="AG31" s="20"/>
+      <c r="AH31" s="21"/>
+      <c r="AI31" s="21"/>
+      <c r="AJ31" s="21"/>
+      <c r="AK31" s="21"/>
+      <c r="AL31" s="21"/>
+      <c r="AM31" s="21"/>
+      <c r="AN31" s="21"/>
+      <c r="AO31" s="21"/>
+      <c r="AP31" s="21"/>
+      <c r="AQ31" s="21"/>
+      <c r="AR31" s="21"/>
+      <c r="AS31" s="21"/>
+      <c r="AT31" s="21"/>
+      <c r="AU31" s="21"/>
+      <c r="AV31" s="21"/>
+      <c r="AW31" s="21"/>
+      <c r="AX31" s="21"/>
+      <c r="AY31" s="21"/>
+      <c r="AZ31" s="21"/>
+      <c r="BA31" s="21"/>
+      <c r="BB31" s="21"/>
+      <c r="BC31" s="21"/>
+      <c r="BD31" s="21"/>
+      <c r="BE31" s="21"/>
+      <c r="BF31" s="21"/>
+      <c r="BG31" s="21"/>
+      <c r="BH31" s="21"/>
+      <c r="BI31" s="21"/>
+      <c r="BJ31" s="21"/>
+      <c r="BK31" s="21"/>
+      <c r="BL31" s="22"/>
       <c r="BM31" s="19"/>
       <c r="BN31" s="19"/>
       <c r="BO31" s="19"/>
@@ -2121,6 +2353,38 @@
       <c r="AD32" s="19"/>
       <c r="AE32" s="19"/>
       <c r="AF32" s="19"/>
+      <c r="AG32" s="20"/>
+      <c r="AH32" s="21"/>
+      <c r="AI32" s="21"/>
+      <c r="AJ32" s="21"/>
+      <c r="AK32" s="21"/>
+      <c r="AL32" s="21"/>
+      <c r="AM32" s="21"/>
+      <c r="AN32" s="21"/>
+      <c r="AO32" s="21"/>
+      <c r="AP32" s="21"/>
+      <c r="AQ32" s="21"/>
+      <c r="AR32" s="21"/>
+      <c r="AS32" s="21"/>
+      <c r="AT32" s="21"/>
+      <c r="AU32" s="21"/>
+      <c r="AV32" s="21"/>
+      <c r="AW32" s="21"/>
+      <c r="AX32" s="21"/>
+      <c r="AY32" s="21"/>
+      <c r="AZ32" s="21"/>
+      <c r="BA32" s="21"/>
+      <c r="BB32" s="21"/>
+      <c r="BC32" s="21"/>
+      <c r="BD32" s="21"/>
+      <c r="BE32" s="21"/>
+      <c r="BF32" s="21"/>
+      <c r="BG32" s="21"/>
+      <c r="BH32" s="21"/>
+      <c r="BI32" s="21"/>
+      <c r="BJ32" s="21"/>
+      <c r="BK32" s="21"/>
+      <c r="BL32" s="22"/>
       <c r="BM32" s="19"/>
       <c r="BN32" s="19"/>
       <c r="BO32" s="19"/>
@@ -2149,287 +2413,284 @@
       <c r="CL32" s="1"/>
     </row>
     <row r="37" spans="11:90" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="AG37" s="28"/>
-      <c r="AH37" s="29"/>
-      <c r="AI37" s="29"/>
-      <c r="AJ37" s="29"/>
-      <c r="AK37" s="29"/>
-      <c r="AL37" s="29"/>
-      <c r="AM37" s="29"/>
-      <c r="AN37" s="29"/>
-      <c r="AO37" s="29"/>
-      <c r="AP37" s="29"/>
-      <c r="AQ37" s="29"/>
-      <c r="AR37" s="29"/>
-      <c r="AS37" s="29"/>
-      <c r="AT37" s="29"/>
-      <c r="AU37" s="29"/>
-      <c r="AV37" s="29"/>
-      <c r="AW37" s="29"/>
-      <c r="AX37" s="29"/>
-      <c r="AY37" s="29"/>
-      <c r="AZ37" s="29"/>
-      <c r="BA37" s="29"/>
-      <c r="BB37" s="29"/>
-      <c r="BC37" s="29"/>
-      <c r="BD37" s="30"/>
-      <c r="BE37" s="29"/>
-      <c r="BF37" s="29"/>
-      <c r="BG37" s="29"/>
-      <c r="BH37" s="29"/>
-      <c r="BI37" s="29"/>
-      <c r="BJ37" s="29"/>
-      <c r="BK37" s="29"/>
-      <c r="BL37" s="29"/>
-      <c r="BM37" s="29"/>
-      <c r="BN37" s="29"/>
-      <c r="BO37" s="29"/>
-      <c r="BP37" s="29"/>
-      <c r="BQ37" s="29"/>
-      <c r="BR37" s="29"/>
-      <c r="BS37" s="29"/>
-      <c r="BT37" s="30"/>
+      <c r="AG37" s="26"/>
+      <c r="AH37" s="27"/>
+      <c r="AI37" s="27"/>
+      <c r="AJ37" s="27"/>
+      <c r="AK37" s="27"/>
+      <c r="AL37" s="27"/>
+      <c r="AM37" s="27"/>
+      <c r="AN37" s="27"/>
+      <c r="AO37" s="27"/>
+      <c r="AP37" s="27"/>
+      <c r="AQ37" s="27"/>
+      <c r="AR37" s="27"/>
+      <c r="AS37" s="27"/>
+      <c r="AT37" s="27"/>
+      <c r="AU37" s="27"/>
+      <c r="AV37" s="27"/>
+      <c r="AW37" s="27"/>
+      <c r="AX37" s="27"/>
+      <c r="AY37" s="27"/>
+      <c r="AZ37" s="27"/>
+      <c r="BA37" s="27"/>
+      <c r="BB37" s="27"/>
+      <c r="BC37" s="27"/>
+      <c r="BD37" s="28"/>
+      <c r="BE37" s="27"/>
+      <c r="BF37" s="27"/>
+      <c r="BG37" s="27"/>
+      <c r="BH37" s="27"/>
+      <c r="BI37" s="27"/>
+      <c r="BJ37" s="27"/>
+      <c r="BK37" s="27"/>
+      <c r="BL37" s="27"/>
+      <c r="BM37" s="27"/>
+      <c r="BN37" s="27"/>
+      <c r="BO37" s="27"/>
+      <c r="BP37" s="27"/>
+      <c r="BQ37" s="27"/>
+      <c r="BR37" s="27"/>
+      <c r="BS37" s="27"/>
+      <c r="BT37" s="28"/>
       <c r="BU37" s="19"/>
-      <c r="BV37" s="37"/>
-      <c r="BW37" s="37"/>
-      <c r="BX37" s="37"/>
-      <c r="BY37" s="37"/>
+      <c r="BV37" s="29"/>
+      <c r="BW37" s="29"/>
+      <c r="BX37" s="29"/>
+      <c r="BY37" s="29"/>
       <c r="BZ37" s="19"/>
       <c r="CA37" s="19"/>
       <c r="CB37" s="19"/>
     </row>
     <row r="38" spans="11:90" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="AG38" s="34"/>
-      <c r="AH38" s="50"/>
-      <c r="AI38" s="50"/>
-      <c r="AJ38" s="50"/>
-      <c r="AK38" s="50"/>
-      <c r="AL38" s="50"/>
-      <c r="AM38" s="50"/>
-      <c r="AN38" s="50"/>
-      <c r="AO38" s="50"/>
-      <c r="AP38" s="50"/>
-      <c r="AQ38" s="50"/>
-      <c r="AR38" s="50"/>
-      <c r="AS38" s="50"/>
-      <c r="AT38" s="50"/>
-      <c r="AU38" s="50"/>
-      <c r="AV38" s="50"/>
-      <c r="AW38" s="50"/>
-      <c r="AX38" s="50"/>
-      <c r="AY38" s="50"/>
-      <c r="AZ38" s="50"/>
-      <c r="BA38" s="50"/>
-      <c r="BB38" s="50"/>
-      <c r="BC38" s="50"/>
-      <c r="BD38" s="36"/>
-      <c r="BE38" s="35"/>
-      <c r="BF38" s="35"/>
-      <c r="BG38" s="35"/>
-      <c r="BH38" s="35"/>
-      <c r="BI38" s="35"/>
-      <c r="BJ38" s="35"/>
-      <c r="BK38" s="35"/>
-      <c r="BL38" s="35"/>
-      <c r="BM38" s="35"/>
-      <c r="BN38" s="35"/>
-      <c r="BO38" s="35"/>
-      <c r="BP38" s="35"/>
-      <c r="BQ38" s="35"/>
-      <c r="BR38" s="35"/>
-      <c r="BS38" s="35"/>
-      <c r="BT38" s="36"/>
+      <c r="AG38" s="20"/>
+      <c r="AH38" s="21"/>
+      <c r="AI38" s="21"/>
+      <c r="AJ38" s="21"/>
+      <c r="AK38" s="21"/>
+      <c r="AL38" s="21"/>
+      <c r="AM38" s="21"/>
+      <c r="AN38" s="21"/>
+      <c r="AO38" s="21"/>
+      <c r="AP38" s="21"/>
+      <c r="AQ38" s="21"/>
+      <c r="AR38" s="21"/>
+      <c r="AS38" s="21"/>
+      <c r="AT38" s="21"/>
+      <c r="AU38" s="21"/>
+      <c r="AV38" s="21"/>
+      <c r="AW38" s="21"/>
+      <c r="AX38" s="21"/>
+      <c r="AY38" s="21"/>
+      <c r="AZ38" s="21"/>
+      <c r="BA38" s="21"/>
+      <c r="BB38" s="21"/>
+      <c r="BC38" s="21"/>
+      <c r="BD38" s="22"/>
+      <c r="BE38" s="21"/>
+      <c r="BF38" s="21"/>
+      <c r="BG38" s="21"/>
+      <c r="BH38" s="21"/>
+      <c r="BI38" s="21"/>
+      <c r="BJ38" s="21"/>
+      <c r="BK38" s="21"/>
+      <c r="BL38" s="21"/>
+      <c r="BM38" s="21"/>
+      <c r="BN38" s="21"/>
+      <c r="BO38" s="21"/>
+      <c r="BP38" s="21"/>
+      <c r="BQ38" s="21"/>
+      <c r="BR38" s="21"/>
+      <c r="BS38" s="21"/>
+      <c r="BT38" s="22"/>
       <c r="BU38" s="19"/>
-      <c r="BV38" s="38"/>
-      <c r="BW38" s="38"/>
-      <c r="BX38" s="38"/>
-      <c r="BY38" s="38"/>
+      <c r="BV38" s="41"/>
+      <c r="BW38" s="41"/>
+      <c r="BX38" s="41"/>
+      <c r="BY38" s="41"/>
       <c r="BZ38" s="19"/>
       <c r="CA38" s="19"/>
       <c r="CB38" s="19"/>
     </row>
     <row r="39" spans="11:90" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="AG39" s="34"/>
-      <c r="AH39" s="50"/>
-      <c r="AI39" s="50"/>
-      <c r="AJ39" s="50"/>
-      <c r="AK39" s="50"/>
-      <c r="AL39" s="50"/>
-      <c r="AM39" s="50"/>
-      <c r="AN39" s="50"/>
-      <c r="AO39" s="50"/>
-      <c r="AP39" s="50"/>
-      <c r="AQ39" s="50"/>
-      <c r="AR39" s="50"/>
-      <c r="AS39" s="50"/>
-      <c r="AT39" s="50"/>
-      <c r="AU39" s="50"/>
-      <c r="AV39" s="50"/>
-      <c r="AW39" s="50"/>
-      <c r="AX39" s="50"/>
-      <c r="AY39" s="50"/>
-      <c r="AZ39" s="50"/>
-      <c r="BA39" s="50"/>
-      <c r="BB39" s="50"/>
-      <c r="BC39" s="50"/>
-      <c r="BD39" s="36"/>
-      <c r="BE39" s="35"/>
-      <c r="BF39" s="35"/>
-      <c r="BG39" s="35"/>
-      <c r="BH39" s="35"/>
-      <c r="BI39" s="35"/>
-      <c r="BJ39" s="35"/>
-      <c r="BK39" s="35"/>
-      <c r="BL39" s="35"/>
-      <c r="BM39" s="35"/>
-      <c r="BN39" s="35"/>
-      <c r="BO39" s="35"/>
-      <c r="BP39" s="35"/>
-      <c r="BQ39" s="35"/>
-      <c r="BR39" s="35"/>
-      <c r="BS39" s="35"/>
-      <c r="BT39" s="36"/>
+      <c r="AG39" s="20"/>
+      <c r="AH39" s="21"/>
+      <c r="AI39" s="21"/>
+      <c r="AJ39" s="21"/>
+      <c r="AK39" s="21"/>
+      <c r="AL39" s="21"/>
+      <c r="AM39" s="21"/>
+      <c r="AN39" s="21"/>
+      <c r="AO39" s="21"/>
+      <c r="AP39" s="21"/>
+      <c r="AQ39" s="21"/>
+      <c r="AR39" s="21"/>
+      <c r="AS39" s="21"/>
+      <c r="AT39" s="21"/>
+      <c r="AU39" s="21"/>
+      <c r="AV39" s="21"/>
+      <c r="AW39" s="21"/>
+      <c r="AX39" s="21"/>
+      <c r="AY39" s="21"/>
+      <c r="AZ39" s="21"/>
+      <c r="BA39" s="21"/>
+      <c r="BB39" s="21"/>
+      <c r="BC39" s="21"/>
+      <c r="BD39" s="22"/>
+      <c r="BE39" s="21"/>
+      <c r="BF39" s="21"/>
+      <c r="BG39" s="21"/>
+      <c r="BH39" s="21"/>
+      <c r="BI39" s="21"/>
+      <c r="BJ39" s="21"/>
+      <c r="BK39" s="21"/>
+      <c r="BL39" s="21"/>
+      <c r="BM39" s="21"/>
+      <c r="BN39" s="21"/>
+      <c r="BO39" s="21"/>
+      <c r="BP39" s="21"/>
+      <c r="BQ39" s="21"/>
+      <c r="BR39" s="21"/>
+      <c r="BS39" s="21"/>
+      <c r="BT39" s="22"/>
       <c r="BU39" s="19"/>
-      <c r="BV39" s="38"/>
-      <c r="BW39" s="38"/>
-      <c r="BX39" s="38"/>
-      <c r="BY39" s="38"/>
+      <c r="BV39" s="41"/>
+      <c r="BW39" s="41"/>
+      <c r="BX39" s="41"/>
+      <c r="BY39" s="41"/>
       <c r="BZ39" s="19"/>
       <c r="CA39" s="19"/>
       <c r="CB39" s="19"/>
     </row>
     <row r="40" spans="11:90" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="AG40" s="34"/>
-      <c r="AH40" s="50"/>
-      <c r="AI40" s="50"/>
-      <c r="AJ40" s="50"/>
-      <c r="AK40" s="50"/>
-      <c r="AL40" s="50"/>
-      <c r="AM40" s="50"/>
-      <c r="AN40" s="50"/>
-      <c r="AO40" s="50"/>
-      <c r="AP40" s="50"/>
-      <c r="AQ40" s="50"/>
-      <c r="AR40" s="50"/>
-      <c r="AS40" s="50"/>
-      <c r="AT40" s="50"/>
-      <c r="AU40" s="50"/>
-      <c r="AV40" s="50"/>
-      <c r="AW40" s="50"/>
-      <c r="AX40" s="50"/>
-      <c r="AY40" s="50"/>
-      <c r="AZ40" s="50"/>
-      <c r="BA40" s="50"/>
-      <c r="BB40" s="50"/>
-      <c r="BC40" s="50"/>
-      <c r="BD40" s="36"/>
-      <c r="BE40" s="35"/>
-      <c r="BF40" s="35"/>
-      <c r="BG40" s="35"/>
-      <c r="BH40" s="35"/>
-      <c r="BI40" s="35"/>
-      <c r="BJ40" s="35"/>
-      <c r="BK40" s="35"/>
-      <c r="BL40" s="35"/>
-      <c r="BM40" s="35"/>
-      <c r="BN40" s="35"/>
-      <c r="BO40" s="35"/>
-      <c r="BP40" s="35"/>
-      <c r="BQ40" s="35"/>
-      <c r="BR40" s="35"/>
-      <c r="BS40" s="35"/>
-      <c r="BT40" s="36"/>
+      <c r="AG40" s="20"/>
+      <c r="AH40" s="21"/>
+      <c r="AI40" s="21"/>
+      <c r="AJ40" s="21"/>
+      <c r="AK40" s="21"/>
+      <c r="AL40" s="21"/>
+      <c r="AM40" s="21"/>
+      <c r="AN40" s="21"/>
+      <c r="AO40" s="21"/>
+      <c r="AP40" s="21"/>
+      <c r="AQ40" s="21"/>
+      <c r="AR40" s="21"/>
+      <c r="AS40" s="21"/>
+      <c r="AT40" s="21"/>
+      <c r="AU40" s="21"/>
+      <c r="AV40" s="21"/>
+      <c r="AW40" s="21"/>
+      <c r="AX40" s="21"/>
+      <c r="AY40" s="21"/>
+      <c r="AZ40" s="21"/>
+      <c r="BA40" s="21"/>
+      <c r="BB40" s="21"/>
+      <c r="BC40" s="21"/>
+      <c r="BD40" s="22"/>
+      <c r="BE40" s="21"/>
+      <c r="BF40" s="21"/>
+      <c r="BG40" s="21"/>
+      <c r="BH40" s="21"/>
+      <c r="BI40" s="21"/>
+      <c r="BJ40" s="21"/>
+      <c r="BK40" s="21"/>
+      <c r="BL40" s="21"/>
+      <c r="BM40" s="21"/>
+      <c r="BN40" s="21"/>
+      <c r="BO40" s="21"/>
+      <c r="BP40" s="21"/>
+      <c r="BQ40" s="21"/>
+      <c r="BR40" s="21"/>
+      <c r="BS40" s="21"/>
+      <c r="BT40" s="22"/>
       <c r="BU40" s="19"/>
-      <c r="BV40" s="38"/>
-      <c r="BW40" s="38"/>
-      <c r="BX40" s="38"/>
-      <c r="BY40" s="38"/>
+      <c r="BV40" s="41"/>
+      <c r="BW40" s="41"/>
+      <c r="BX40" s="41"/>
+      <c r="BY40" s="41"/>
       <c r="BZ40" s="19"/>
       <c r="CA40" s="19"/>
       <c r="CB40" s="19"/>
     </row>
     <row r="41" spans="11:90" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="AG41" s="31"/>
-      <c r="AH41" s="32"/>
-      <c r="AI41" s="32"/>
-      <c r="AJ41" s="32"/>
-      <c r="AK41" s="32"/>
-      <c r="AL41" s="32"/>
-      <c r="AM41" s="32"/>
-      <c r="AN41" s="32"/>
-      <c r="AO41" s="32"/>
-      <c r="AP41" s="32"/>
-      <c r="AQ41" s="32"/>
-      <c r="AR41" s="32"/>
-      <c r="AS41" s="32"/>
-      <c r="AT41" s="32"/>
-      <c r="AU41" s="32"/>
-      <c r="AV41" s="32"/>
-      <c r="AW41" s="32"/>
-      <c r="AX41" s="32"/>
-      <c r="AY41" s="32"/>
-      <c r="AZ41" s="32"/>
-      <c r="BA41" s="32"/>
-      <c r="BB41" s="32"/>
-      <c r="BC41" s="32"/>
-      <c r="BD41" s="33"/>
-      <c r="BE41" s="32"/>
-      <c r="BF41" s="32"/>
-      <c r="BG41" s="32"/>
-      <c r="BH41" s="32"/>
-      <c r="BI41" s="32"/>
-      <c r="BJ41" s="32"/>
-      <c r="BK41" s="32"/>
-      <c r="BL41" s="32"/>
-      <c r="BM41" s="32"/>
-      <c r="BN41" s="32"/>
-      <c r="BO41" s="32"/>
-      <c r="BP41" s="32"/>
-      <c r="BQ41" s="32"/>
-      <c r="BR41" s="32"/>
-      <c r="BS41" s="32"/>
-      <c r="BT41" s="33"/>
+      <c r="AG41" s="23"/>
+      <c r="AH41" s="24"/>
+      <c r="AI41" s="24"/>
+      <c r="AJ41" s="24"/>
+      <c r="AK41" s="24"/>
+      <c r="AL41" s="24"/>
+      <c r="AM41" s="24"/>
+      <c r="AN41" s="24"/>
+      <c r="AO41" s="24"/>
+      <c r="AP41" s="24"/>
+      <c r="AQ41" s="24"/>
+      <c r="AR41" s="24"/>
+      <c r="AS41" s="24"/>
+      <c r="AT41" s="24"/>
+      <c r="AU41" s="24"/>
+      <c r="AV41" s="24"/>
+      <c r="AW41" s="24"/>
+      <c r="AX41" s="24"/>
+      <c r="AY41" s="24"/>
+      <c r="AZ41" s="24"/>
+      <c r="BA41" s="24"/>
+      <c r="BB41" s="24"/>
+      <c r="BC41" s="24"/>
+      <c r="BD41" s="25"/>
+      <c r="BE41" s="24"/>
+      <c r="BF41" s="24"/>
+      <c r="BG41" s="24"/>
+      <c r="BH41" s="24"/>
+      <c r="BI41" s="24"/>
+      <c r="BJ41" s="24"/>
+      <c r="BK41" s="24"/>
+      <c r="BL41" s="24"/>
+      <c r="BM41" s="24"/>
+      <c r="BN41" s="24"/>
+      <c r="BO41" s="24"/>
+      <c r="BP41" s="24"/>
+      <c r="BQ41" s="24"/>
+      <c r="BR41" s="24"/>
+      <c r="BS41" s="24"/>
+      <c r="BT41" s="25"/>
       <c r="BU41" s="19"/>
-      <c r="BV41" s="39"/>
-      <c r="BW41" s="39"/>
-      <c r="BX41" s="39"/>
-      <c r="BY41" s="39"/>
+      <c r="BV41" s="30"/>
+      <c r="BW41" s="30"/>
+      <c r="BX41" s="30"/>
+      <c r="BY41" s="30"/>
       <c r="BZ41" s="19"/>
       <c r="CA41" s="19"/>
       <c r="CB41" s="19"/>
     </row>
     <row r="42" spans="11:90" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="AC42" s="22"/>
-      <c r="AD42" s="23"/>
-      <c r="AE42" s="23"/>
-      <c r="AF42" s="23"/>
-      <c r="AG42" s="23"/>
-      <c r="AH42" s="23"/>
-      <c r="AI42" s="23"/>
-      <c r="AJ42" s="23"/>
-      <c r="AK42" s="23"/>
-      <c r="AL42" s="23"/>
-      <c r="AM42" s="23"/>
-      <c r="AN42" s="24"/>
-      <c r="AO42" s="51"/>
-      <c r="AQ42" s="51"/>
-      <c r="AR42" s="51"/>
-      <c r="AS42" s="34"/>
-      <c r="AT42" s="50"/>
-      <c r="AU42" s="50"/>
-      <c r="AV42" s="50"/>
-      <c r="AW42" s="50"/>
-      <c r="AX42" s="50"/>
-      <c r="AY42" s="36"/>
-      <c r="BE42" s="28"/>
-      <c r="BF42" s="29"/>
-      <c r="BG42" s="29"/>
-      <c r="BH42" s="29"/>
-      <c r="BI42" s="29"/>
-      <c r="BJ42" s="29"/>
-      <c r="BK42" s="29"/>
-      <c r="BL42" s="30"/>
-      <c r="BM42" s="40"/>
+      <c r="AC42" s="35"/>
+      <c r="AD42" s="36"/>
+      <c r="AE42" s="36"/>
+      <c r="AF42" s="36"/>
+      <c r="AG42" s="36"/>
+      <c r="AH42" s="36"/>
+      <c r="AI42" s="36"/>
+      <c r="AJ42" s="36"/>
+      <c r="AK42" s="36"/>
+      <c r="AL42" s="36"/>
+      <c r="AM42" s="36"/>
+      <c r="AN42" s="37"/>
+      <c r="AS42" s="20"/>
+      <c r="AT42" s="21"/>
+      <c r="AU42" s="21"/>
+      <c r="AV42" s="21"/>
+      <c r="AW42" s="21"/>
+      <c r="AX42" s="21"/>
+      <c r="AY42" s="22"/>
+      <c r="BE42" s="26"/>
+      <c r="BF42" s="27"/>
+      <c r="BG42" s="27"/>
+      <c r="BH42" s="27"/>
+      <c r="BI42" s="27"/>
+      <c r="BJ42" s="27"/>
+      <c r="BK42" s="27"/>
+      <c r="BL42" s="28"/>
+      <c r="BM42" s="31"/>
       <c r="BN42" s="19"/>
       <c r="BO42" s="19"/>
       <c r="BP42" s="19"/>
@@ -2455,37 +2716,34 @@
       <c r="CJ42" s="19"/>
     </row>
     <row r="43" spans="11:90" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="AC43" s="25"/>
-      <c r="AD43" s="26"/>
-      <c r="AE43" s="26"/>
-      <c r="AF43" s="26"/>
-      <c r="AG43" s="26"/>
-      <c r="AH43" s="26"/>
-      <c r="AI43" s="26"/>
-      <c r="AJ43" s="26"/>
-      <c r="AK43" s="26"/>
-      <c r="AL43" s="26"/>
-      <c r="AM43" s="26"/>
-      <c r="AN43" s="27"/>
-      <c r="AO43" s="51"/>
-      <c r="AQ43" s="51"/>
-      <c r="AR43" s="51"/>
-      <c r="AS43" s="31"/>
-      <c r="AT43" s="32"/>
-      <c r="AU43" s="32"/>
-      <c r="AV43" s="32"/>
-      <c r="AW43" s="32"/>
-      <c r="AX43" s="32"/>
-      <c r="AY43" s="33"/>
-      <c r="BE43" s="34"/>
-      <c r="BF43" s="35"/>
-      <c r="BG43" s="35"/>
-      <c r="BH43" s="35"/>
-      <c r="BI43" s="35"/>
-      <c r="BJ43" s="35"/>
-      <c r="BK43" s="35"/>
-      <c r="BL43" s="36"/>
-      <c r="BM43" s="40"/>
+      <c r="AC43" s="38"/>
+      <c r="AD43" s="39"/>
+      <c r="AE43" s="39"/>
+      <c r="AF43" s="39"/>
+      <c r="AG43" s="39"/>
+      <c r="AH43" s="39"/>
+      <c r="AI43" s="39"/>
+      <c r="AJ43" s="39"/>
+      <c r="AK43" s="39"/>
+      <c r="AL43" s="39"/>
+      <c r="AM43" s="39"/>
+      <c r="AN43" s="40"/>
+      <c r="AS43" s="23"/>
+      <c r="AT43" s="24"/>
+      <c r="AU43" s="24"/>
+      <c r="AV43" s="24"/>
+      <c r="AW43" s="24"/>
+      <c r="AX43" s="24"/>
+      <c r="AY43" s="25"/>
+      <c r="BE43" s="20"/>
+      <c r="BF43" s="21"/>
+      <c r="BG43" s="21"/>
+      <c r="BH43" s="21"/>
+      <c r="BI43" s="21"/>
+      <c r="BJ43" s="21"/>
+      <c r="BK43" s="21"/>
+      <c r="BL43" s="22"/>
+      <c r="BM43" s="31"/>
       <c r="BN43" s="19"/>
       <c r="BO43" s="19"/>
       <c r="BP43" s="19"/>
@@ -2517,10 +2775,10 @@
       <c r="N44" s="19"/>
       <c r="O44" s="19"/>
       <c r="P44" s="19"/>
-      <c r="Q44" s="20"/>
-      <c r="R44" s="20"/>
-      <c r="S44" s="20"/>
-      <c r="T44" s="20"/>
+      <c r="Q44" s="33"/>
+      <c r="R44" s="33"/>
+      <c r="S44" s="33"/>
+      <c r="T44" s="33"/>
       <c r="U44" s="19"/>
       <c r="V44" s="19"/>
       <c r="W44" s="19"/>
@@ -2529,10 +2787,10 @@
       <c r="Z44" s="19"/>
       <c r="AA44" s="19"/>
       <c r="AB44" s="19"/>
-      <c r="AC44" s="20"/>
-      <c r="AD44" s="20"/>
-      <c r="AE44" s="20"/>
-      <c r="AF44" s="20"/>
+      <c r="AC44" s="33"/>
+      <c r="AD44" s="33"/>
+      <c r="AE44" s="33"/>
+      <c r="AF44" s="33"/>
       <c r="AG44" s="19"/>
       <c r="AH44" s="19"/>
       <c r="AI44" s="19"/>
@@ -2541,15 +2799,15 @@
       <c r="AL44" s="19"/>
       <c r="AM44" s="19"/>
       <c r="AN44" s="19"/>
-      <c r="BE44" s="34"/>
-      <c r="BF44" s="35"/>
-      <c r="BG44" s="35"/>
-      <c r="BH44" s="35"/>
-      <c r="BI44" s="35"/>
-      <c r="BJ44" s="35"/>
-      <c r="BK44" s="35"/>
-      <c r="BL44" s="36"/>
-      <c r="BM44" s="40"/>
+      <c r="BE44" s="20"/>
+      <c r="BF44" s="21"/>
+      <c r="BG44" s="21"/>
+      <c r="BH44" s="21"/>
+      <c r="BI44" s="21"/>
+      <c r="BJ44" s="21"/>
+      <c r="BK44" s="21"/>
+      <c r="BL44" s="22"/>
+      <c r="BM44" s="31"/>
       <c r="BN44" s="19"/>
       <c r="BO44" s="19"/>
       <c r="BP44" s="19"/>
@@ -2573,7 +2831,7 @@
       <c r="CH44" s="19"/>
       <c r="CI44" s="19"/>
       <c r="CJ44" s="19"/>
-      <c r="CK44" s="40"/>
+      <c r="CK44" s="31"/>
       <c r="CL44" s="19"/>
     </row>
     <row r="45" spans="11:90" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -2583,10 +2841,10 @@
       <c r="N45" s="19"/>
       <c r="O45" s="19"/>
       <c r="P45" s="19"/>
-      <c r="Q45" s="20"/>
-      <c r="R45" s="20"/>
-      <c r="S45" s="20"/>
-      <c r="T45" s="20"/>
+      <c r="Q45" s="33"/>
+      <c r="R45" s="33"/>
+      <c r="S45" s="33"/>
+      <c r="T45" s="33"/>
       <c r="U45" s="19"/>
       <c r="V45" s="19"/>
       <c r="W45" s="19"/>
@@ -2595,10 +2853,10 @@
       <c r="Z45" s="19"/>
       <c r="AA45" s="19"/>
       <c r="AB45" s="19"/>
-      <c r="AC45" s="20"/>
-      <c r="AD45" s="20"/>
-      <c r="AE45" s="20"/>
-      <c r="AF45" s="20"/>
+      <c r="AC45" s="33"/>
+      <c r="AD45" s="33"/>
+      <c r="AE45" s="33"/>
+      <c r="AF45" s="33"/>
       <c r="AG45" s="19"/>
       <c r="AH45" s="19"/>
       <c r="AI45" s="19"/>
@@ -2607,14 +2865,14 @@
       <c r="AL45" s="19"/>
       <c r="AM45" s="19"/>
       <c r="AN45" s="19"/>
-      <c r="BE45" s="31"/>
-      <c r="BF45" s="32"/>
-      <c r="BG45" s="32"/>
-      <c r="BH45" s="32"/>
-      <c r="BI45" s="32"/>
-      <c r="BJ45" s="32"/>
-      <c r="BK45" s="32"/>
-      <c r="BL45" s="33"/>
+      <c r="BE45" s="23"/>
+      <c r="BF45" s="24"/>
+      <c r="BG45" s="24"/>
+      <c r="BH45" s="24"/>
+      <c r="BI45" s="24"/>
+      <c r="BJ45" s="24"/>
+      <c r="BK45" s="24"/>
+      <c r="BL45" s="25"/>
       <c r="BQ45" s="19"/>
       <c r="BR45" s="19"/>
       <c r="BS45" s="19"/>
@@ -2631,7 +2889,7 @@
       <c r="CH45" s="19"/>
       <c r="CI45" s="19"/>
       <c r="CJ45" s="19"/>
-      <c r="CK45" s="40"/>
+      <c r="CK45" s="31"/>
       <c r="CL45" s="19"/>
     </row>
     <row r="46" spans="11:90" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -2666,28 +2924,27 @@
       <c r="AF48" s="19"/>
       <c r="AG48" s="19"/>
       <c r="AH48" s="19"/>
-      <c r="AI48" s="37"/>
+      <c r="AI48" s="14"/>
       <c r="AJ48" s="14"/>
       <c r="AK48" s="14"/>
       <c r="AL48" s="19"/>
       <c r="AM48" s="19"/>
       <c r="AN48" s="19"/>
-      <c r="AP48" s="41"/>
-      <c r="AQ48" s="42"/>
-      <c r="AR48" s="52"/>
-      <c r="AS48" s="43"/>
-      <c r="AT48" s="42"/>
-      <c r="AU48" s="42"/>
-      <c r="AV48" s="42"/>
-      <c r="AW48" s="42"/>
-      <c r="AX48" s="42"/>
-      <c r="AY48" s="42"/>
-      <c r="AZ48" s="42"/>
-      <c r="BA48" s="41"/>
-      <c r="BB48" s="43"/>
-      <c r="BC48" s="51"/>
-      <c r="BD48" s="49"/>
-      <c r="BE48" s="40"/>
+      <c r="AP48" s="11"/>
+      <c r="AQ48" s="16"/>
+      <c r="AR48" s="2"/>
+      <c r="AS48" s="9"/>
+      <c r="AT48" s="16"/>
+      <c r="AU48" s="16"/>
+      <c r="AV48" s="16"/>
+      <c r="AW48" s="16"/>
+      <c r="AX48" s="16"/>
+      <c r="AY48" s="16"/>
+      <c r="AZ48" s="16"/>
+      <c r="BA48" s="11"/>
+      <c r="BB48" s="9"/>
+      <c r="BD48" s="10"/>
+      <c r="BE48" s="31"/>
       <c r="BF48" s="19"/>
       <c r="BG48" s="19"/>
       <c r="BH48" s="19"/>
@@ -2752,22 +3009,13 @@
       <c r="AL49" s="19"/>
       <c r="AM49" s="19"/>
       <c r="AN49" s="19"/>
-      <c r="AP49" s="47"/>
-      <c r="AQ49" s="51"/>
-      <c r="AR49" s="53"/>
-      <c r="AS49" s="49"/>
-      <c r="AT49" s="48"/>
-      <c r="AU49" s="48"/>
-      <c r="AV49" s="48"/>
-      <c r="AW49" s="48"/>
-      <c r="AX49" s="48"/>
-      <c r="AY49" s="48"/>
-      <c r="AZ49" s="51"/>
-      <c r="BA49" s="47"/>
-      <c r="BB49" s="49"/>
-      <c r="BC49" s="51"/>
-      <c r="BD49" s="49"/>
-      <c r="BE49" s="40"/>
+      <c r="AP49" s="12"/>
+      <c r="AR49" s="3"/>
+      <c r="AS49" s="10"/>
+      <c r="BA49" s="12"/>
+      <c r="BB49" s="10"/>
+      <c r="BD49" s="10"/>
+      <c r="BE49" s="31"/>
       <c r="BF49" s="19"/>
       <c r="BG49" s="19"/>
       <c r="BH49" s="19"/>
@@ -2827,28 +3075,19 @@
       <c r="AF50" s="19"/>
       <c r="AG50" s="19"/>
       <c r="AH50" s="19"/>
-      <c r="AI50" s="37"/>
-      <c r="AJ50" s="37"/>
-      <c r="AK50" s="37"/>
+      <c r="AI50" s="29"/>
+      <c r="AJ50" s="29"/>
+      <c r="AK50" s="29"/>
       <c r="AL50" s="19"/>
       <c r="AM50" s="19"/>
       <c r="AN50" s="19"/>
-      <c r="AP50" s="47"/>
-      <c r="AQ50" s="49"/>
-      <c r="AR50" s="51"/>
-      <c r="AS50" s="49"/>
-      <c r="AT50" s="48"/>
-      <c r="AU50" s="48"/>
-      <c r="AV50" s="48"/>
-      <c r="AW50" s="48"/>
-      <c r="AX50" s="48"/>
-      <c r="AY50" s="48"/>
-      <c r="AZ50" s="51"/>
-      <c r="BA50" s="47"/>
-      <c r="BB50" s="49"/>
-      <c r="BC50" s="51"/>
-      <c r="BD50" s="49"/>
-      <c r="BE50" s="40"/>
+      <c r="AP50" s="12"/>
+      <c r="AQ50" s="10"/>
+      <c r="AS50" s="10"/>
+      <c r="BA50" s="12"/>
+      <c r="BB50" s="10"/>
+      <c r="BD50" s="10"/>
+      <c r="BE50" s="31"/>
       <c r="BF50" s="19"/>
       <c r="BG50" s="19"/>
       <c r="BH50" s="19"/>
@@ -2908,28 +3147,20 @@
       <c r="AF51" s="19"/>
       <c r="AG51" s="19"/>
       <c r="AH51" s="19"/>
-      <c r="AI51" s="39"/>
-      <c r="AJ51" s="39"/>
-      <c r="AK51" s="39"/>
+      <c r="AI51" s="30"/>
+      <c r="AJ51" s="30"/>
+      <c r="AK51" s="30"/>
       <c r="AL51" s="19"/>
       <c r="AM51" s="19"/>
       <c r="AN51" s="19"/>
-      <c r="AP51" s="44"/>
-      <c r="AQ51" s="46"/>
-      <c r="AR51" s="45"/>
-      <c r="AS51" s="46"/>
-      <c r="AT51" s="48"/>
-      <c r="AU51" s="48"/>
-      <c r="AV51" s="48"/>
-      <c r="AW51" s="48"/>
-      <c r="AX51" s="48"/>
-      <c r="AY51" s="48"/>
-      <c r="AZ51" s="51"/>
-      <c r="BA51" s="44"/>
-      <c r="BB51" s="46"/>
-      <c r="BC51" s="51"/>
-      <c r="BD51" s="49"/>
-      <c r="BE51" s="40"/>
+      <c r="AP51" s="5"/>
+      <c r="AQ51" s="7"/>
+      <c r="AR51" s="6"/>
+      <c r="AS51" s="7"/>
+      <c r="BA51" s="5"/>
+      <c r="BB51" s="7"/>
+      <c r="BD51" s="10"/>
+      <c r="BE51" s="31"/>
       <c r="BF51" s="19"/>
       <c r="BG51" s="19"/>
       <c r="BH51" s="19"/>
@@ -2988,15 +3219,9 @@
       <c r="AE52" s="19"/>
       <c r="AF52" s="19"/>
       <c r="AO52" s="16"/>
-      <c r="AR52" s="41"/>
-      <c r="AS52" s="42"/>
-      <c r="AT52" s="48"/>
-      <c r="AU52" s="48"/>
-      <c r="AV52" s="48"/>
-      <c r="AW52" s="48"/>
-      <c r="AX52" s="48"/>
-      <c r="AY52" s="48"/>
-      <c r="AZ52" s="49"/>
+      <c r="AR52" s="11"/>
+      <c r="AS52" s="16"/>
+      <c r="AZ52" s="10"/>
       <c r="BC52" s="16"/>
       <c r="BD52" s="16"/>
       <c r="BM52" s="19"/>
@@ -3049,15 +3274,8 @@
       <c r="AD53" s="19"/>
       <c r="AE53" s="19"/>
       <c r="AF53" s="19"/>
-      <c r="AR53" s="47"/>
-      <c r="AS53" s="48"/>
-      <c r="AT53" s="48"/>
-      <c r="AU53" s="48"/>
-      <c r="AV53" s="48"/>
-      <c r="AW53" s="48"/>
-      <c r="AX53" s="48"/>
-      <c r="AY53" s="48"/>
-      <c r="AZ53" s="49"/>
+      <c r="AR53" s="12"/>
+      <c r="AZ53" s="10"/>
       <c r="BM53" s="19"/>
       <c r="BN53" s="19"/>
       <c r="BO53" s="19"/>
@@ -3086,67 +3304,126 @@
       <c r="CL53" s="1"/>
     </row>
     <row r="54" spans="11:90" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="AR54" s="44"/>
-      <c r="AS54" s="45"/>
-      <c r="AT54" s="45"/>
-      <c r="AU54" s="45"/>
-      <c r="AV54" s="45"/>
-      <c r="AW54" s="45"/>
-      <c r="AX54" s="45"/>
-      <c r="AY54" s="45"/>
-      <c r="AZ54" s="46"/>
+      <c r="AR54" s="5"/>
+      <c r="AS54" s="6"/>
+      <c r="AT54" s="6"/>
+      <c r="AU54" s="6"/>
+      <c r="AV54" s="6"/>
+      <c r="AW54" s="6"/>
+      <c r="AX54" s="6"/>
+      <c r="AY54" s="6"/>
+      <c r="AZ54" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
-    <mergeCell ref="AM50:AM51"/>
-    <mergeCell ref="AN50:AN51"/>
-    <mergeCell ref="AN48:AN49"/>
-    <mergeCell ref="AM48:AM49"/>
-    <mergeCell ref="AS42:AY43"/>
-    <mergeCell ref="AG37:BD41"/>
-    <mergeCell ref="AR27:AR28"/>
-    <mergeCell ref="AN27:AN28"/>
-    <mergeCell ref="AN29:AN30"/>
-    <mergeCell ref="AM29:AM30"/>
-    <mergeCell ref="AM27:AM28"/>
-    <mergeCell ref="BA27:BB30"/>
-    <mergeCell ref="AT27:AZ30"/>
-    <mergeCell ref="CG10:CJ15"/>
-    <mergeCell ref="Q10:T15"/>
-    <mergeCell ref="M10:P15"/>
-    <mergeCell ref="BM10:BP15"/>
-    <mergeCell ref="BQ10:BT15"/>
-    <mergeCell ref="BU10:CB15"/>
-    <mergeCell ref="CC10:CF15"/>
-    <mergeCell ref="AC10:AF15"/>
-    <mergeCell ref="Y10:AB15"/>
-    <mergeCell ref="U10:X15"/>
-    <mergeCell ref="AR10:AR11"/>
-    <mergeCell ref="AP10:AQ13"/>
-    <mergeCell ref="AM10:AM11"/>
-    <mergeCell ref="AM12:AM13"/>
-    <mergeCell ref="AN12:AN13"/>
-    <mergeCell ref="AN10:AN11"/>
-    <mergeCell ref="BA10:BB13"/>
-    <mergeCell ref="AT10:AZ16"/>
-    <mergeCell ref="CK6:CL7"/>
-    <mergeCell ref="BQ6:CB7"/>
-    <mergeCell ref="CG6:CG7"/>
-    <mergeCell ref="CH6:CH7"/>
-    <mergeCell ref="CI6:CJ7"/>
-    <mergeCell ref="K6:L7"/>
-    <mergeCell ref="M6:N7"/>
-    <mergeCell ref="O6:P7"/>
-    <mergeCell ref="Q6:T7"/>
-    <mergeCell ref="U6:AB7"/>
-    <mergeCell ref="AC6:AF7"/>
-    <mergeCell ref="AL6:AO7"/>
-    <mergeCell ref="AG6:AK7"/>
-    <mergeCell ref="AP6:AR7"/>
-    <mergeCell ref="AS6:AU7"/>
-    <mergeCell ref="AV6:AX7"/>
-    <mergeCell ref="AY6:BA7"/>
-    <mergeCell ref="BB6:BL7"/>
+  <mergeCells count="181">
+    <mergeCell ref="CK25:CL27"/>
+    <mergeCell ref="BM24:BP24"/>
+    <mergeCell ref="CC24:CF24"/>
+    <mergeCell ref="K25:AO26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="AO27:AO30"/>
+    <mergeCell ref="AP27:AQ30"/>
+    <mergeCell ref="BC27:BD30"/>
+    <mergeCell ref="CK21:CL22"/>
+    <mergeCell ref="AS27:AS30"/>
+    <mergeCell ref="AR29:AR30"/>
+    <mergeCell ref="AK27:AK28"/>
+    <mergeCell ref="AK29:AK30"/>
+    <mergeCell ref="AJ29:AJ30"/>
+    <mergeCell ref="AI29:AI30"/>
+    <mergeCell ref="AJ27:AJ28"/>
+    <mergeCell ref="Y44:AB45"/>
+    <mergeCell ref="U44:X45"/>
+    <mergeCell ref="Q44:T45"/>
+    <mergeCell ref="M44:P45"/>
+    <mergeCell ref="AG44:AN45"/>
+    <mergeCell ref="AC42:AN43"/>
+    <mergeCell ref="AC44:AF45"/>
+    <mergeCell ref="K21:AO22"/>
+    <mergeCell ref="AP23:BD26"/>
+    <mergeCell ref="AG31:BL32"/>
+    <mergeCell ref="BK50:BK51"/>
+    <mergeCell ref="BJ50:BJ51"/>
+    <mergeCell ref="BI50:BI51"/>
+    <mergeCell ref="BE48:BE49"/>
+    <mergeCell ref="BF48:BF49"/>
+    <mergeCell ref="BG48:BG49"/>
+    <mergeCell ref="BH48:BH49"/>
+    <mergeCell ref="BH50:BH51"/>
+    <mergeCell ref="BG50:BG51"/>
+    <mergeCell ref="BF50:BF51"/>
+    <mergeCell ref="BE50:BE51"/>
+    <mergeCell ref="CG48:CJ53"/>
+    <mergeCell ref="CC48:CF53"/>
+    <mergeCell ref="BU48:CB53"/>
+    <mergeCell ref="BQ48:BT53"/>
+    <mergeCell ref="BM48:BP53"/>
+    <mergeCell ref="M48:P53"/>
+    <mergeCell ref="Q48:T53"/>
+    <mergeCell ref="U48:X53"/>
+    <mergeCell ref="Y48:AB53"/>
+    <mergeCell ref="AC48:AF53"/>
+    <mergeCell ref="AL48:AL49"/>
+    <mergeCell ref="AL50:AL51"/>
+    <mergeCell ref="AK50:AK51"/>
+    <mergeCell ref="AJ50:AJ51"/>
+    <mergeCell ref="AI50:AI51"/>
+    <mergeCell ref="AG48:AG49"/>
+    <mergeCell ref="AH48:AH49"/>
+    <mergeCell ref="AH50:AH51"/>
+    <mergeCell ref="AG50:AG51"/>
+    <mergeCell ref="BI48:BI49"/>
+    <mergeCell ref="BJ48:BJ49"/>
+    <mergeCell ref="BK48:BK49"/>
+    <mergeCell ref="BL48:BL49"/>
+    <mergeCell ref="BL50:BL51"/>
+    <mergeCell ref="Q23:T24"/>
+    <mergeCell ref="O23:P24"/>
+    <mergeCell ref="M23:N24"/>
+    <mergeCell ref="U23:X24"/>
+    <mergeCell ref="AC23:AF24"/>
+    <mergeCell ref="Y23:AB24"/>
+    <mergeCell ref="AG23:AL24"/>
+    <mergeCell ref="U27:X32"/>
+    <mergeCell ref="Q27:T32"/>
+    <mergeCell ref="M27:P32"/>
+    <mergeCell ref="AG27:AG28"/>
+    <mergeCell ref="AH27:AH28"/>
+    <mergeCell ref="Y27:AB32"/>
+    <mergeCell ref="AC27:AF32"/>
+    <mergeCell ref="AL29:AL30"/>
+    <mergeCell ref="AL27:AL28"/>
+    <mergeCell ref="AG29:AG30"/>
+    <mergeCell ref="AH29:AH30"/>
+    <mergeCell ref="CK44:CL45"/>
+    <mergeCell ref="K44:L45"/>
+    <mergeCell ref="CG42:CJ45"/>
+    <mergeCell ref="BU42:CB45"/>
+    <mergeCell ref="BQ42:BT45"/>
+    <mergeCell ref="BM42:BP44"/>
+    <mergeCell ref="CC42:CF44"/>
+    <mergeCell ref="BE42:BL45"/>
+    <mergeCell ref="BE37:BT41"/>
+    <mergeCell ref="BU37:BU41"/>
+    <mergeCell ref="BZ37:BZ41"/>
+    <mergeCell ref="CA37:CA41"/>
+    <mergeCell ref="CB37:CB41"/>
+    <mergeCell ref="BY37:BY41"/>
+    <mergeCell ref="BX37:BX41"/>
+    <mergeCell ref="BW37:BW41"/>
+    <mergeCell ref="BV37:BV41"/>
+    <mergeCell ref="BJ27:BJ28"/>
+    <mergeCell ref="BK27:BK28"/>
+    <mergeCell ref="BI27:BI28"/>
+    <mergeCell ref="BH27:BH28"/>
+    <mergeCell ref="BH29:BH30"/>
+    <mergeCell ref="BI29:BI30"/>
+    <mergeCell ref="CC21:CF23"/>
+    <mergeCell ref="BU21:CB24"/>
+    <mergeCell ref="BQ21:BT24"/>
+    <mergeCell ref="BM21:BP23"/>
+    <mergeCell ref="BE21:BL24"/>
+    <mergeCell ref="BE25:CJ26"/>
     <mergeCell ref="BJ29:BJ30"/>
     <mergeCell ref="BK29:BK30"/>
     <mergeCell ref="K23:L24"/>
@@ -3171,98 +3448,61 @@
     <mergeCell ref="BF29:BF30"/>
     <mergeCell ref="BG29:BG30"/>
     <mergeCell ref="BL27:BL28"/>
-    <mergeCell ref="BJ27:BJ28"/>
-    <mergeCell ref="BK27:BK28"/>
-    <mergeCell ref="BI27:BI28"/>
-    <mergeCell ref="BH27:BH28"/>
-    <mergeCell ref="BH29:BH30"/>
-    <mergeCell ref="BI29:BI30"/>
-    <mergeCell ref="CC21:CF23"/>
-    <mergeCell ref="BU21:CB24"/>
-    <mergeCell ref="BQ21:BT24"/>
-    <mergeCell ref="BM21:BP23"/>
-    <mergeCell ref="BE21:BL24"/>
-    <mergeCell ref="Y27:AB32"/>
-    <mergeCell ref="AC27:AF32"/>
-    <mergeCell ref="AL29:AL30"/>
-    <mergeCell ref="AQ27:AQ28"/>
-    <mergeCell ref="AL27:AL28"/>
-    <mergeCell ref="AG29:AG30"/>
-    <mergeCell ref="AH29:AH30"/>
-    <mergeCell ref="CK44:CL45"/>
-    <mergeCell ref="K44:L45"/>
-    <mergeCell ref="CG42:CJ45"/>
-    <mergeCell ref="BU42:CB45"/>
-    <mergeCell ref="BQ42:BT45"/>
-    <mergeCell ref="BM42:BP44"/>
-    <mergeCell ref="CC42:CF44"/>
-    <mergeCell ref="BE42:BL45"/>
-    <mergeCell ref="Q23:T24"/>
-    <mergeCell ref="O23:P24"/>
-    <mergeCell ref="M23:N24"/>
-    <mergeCell ref="U23:X24"/>
-    <mergeCell ref="AC23:AF24"/>
-    <mergeCell ref="Y23:AB24"/>
-    <mergeCell ref="AG23:AL24"/>
-    <mergeCell ref="U27:X32"/>
-    <mergeCell ref="Q27:T32"/>
-    <mergeCell ref="M27:P32"/>
-    <mergeCell ref="AG27:AG28"/>
-    <mergeCell ref="AH27:AH28"/>
-    <mergeCell ref="CG48:CJ53"/>
-    <mergeCell ref="CC48:CF53"/>
-    <mergeCell ref="BU48:CB53"/>
-    <mergeCell ref="BQ48:BT53"/>
-    <mergeCell ref="BM48:BP53"/>
-    <mergeCell ref="M48:P53"/>
-    <mergeCell ref="Q48:T53"/>
-    <mergeCell ref="U48:X53"/>
-    <mergeCell ref="Y48:AB53"/>
-    <mergeCell ref="AC48:AF53"/>
-    <mergeCell ref="AL48:AL49"/>
-    <mergeCell ref="AL50:AL51"/>
-    <mergeCell ref="AK50:AK51"/>
-    <mergeCell ref="AJ50:AJ51"/>
-    <mergeCell ref="AI50:AI51"/>
-    <mergeCell ref="AG48:AG49"/>
-    <mergeCell ref="AH48:AH49"/>
-    <mergeCell ref="AH50:AH51"/>
-    <mergeCell ref="AG50:AG51"/>
-    <mergeCell ref="BI48:BI49"/>
-    <mergeCell ref="BJ48:BJ49"/>
-    <mergeCell ref="BK48:BK49"/>
-    <mergeCell ref="BL48:BL49"/>
-    <mergeCell ref="BL50:BL51"/>
-    <mergeCell ref="BK50:BK51"/>
-    <mergeCell ref="BJ50:BJ51"/>
-    <mergeCell ref="BI50:BI51"/>
-    <mergeCell ref="BE48:BE49"/>
-    <mergeCell ref="BF48:BF49"/>
-    <mergeCell ref="BG48:BG49"/>
-    <mergeCell ref="BH48:BH49"/>
-    <mergeCell ref="BH50:BH51"/>
-    <mergeCell ref="BG50:BG51"/>
-    <mergeCell ref="BF50:BF51"/>
-    <mergeCell ref="BE50:BE51"/>
-    <mergeCell ref="BE37:BT41"/>
-    <mergeCell ref="BU37:BU41"/>
-    <mergeCell ref="BZ37:BZ41"/>
-    <mergeCell ref="CA37:CA41"/>
-    <mergeCell ref="CB37:CB41"/>
-    <mergeCell ref="BY37:BY41"/>
-    <mergeCell ref="BX37:BX41"/>
-    <mergeCell ref="BW37:BW41"/>
-    <mergeCell ref="BV37:BV41"/>
-    <mergeCell ref="Y44:AB45"/>
-    <mergeCell ref="U44:X45"/>
-    <mergeCell ref="Q44:T45"/>
-    <mergeCell ref="M44:P45"/>
-    <mergeCell ref="AG44:AN45"/>
-    <mergeCell ref="AC42:AN43"/>
-    <mergeCell ref="AC44:AF45"/>
+    <mergeCell ref="CK6:CL7"/>
+    <mergeCell ref="BQ6:CB7"/>
+    <mergeCell ref="CG6:CG7"/>
+    <mergeCell ref="CH6:CH7"/>
+    <mergeCell ref="CI6:CJ7"/>
+    <mergeCell ref="K6:L7"/>
+    <mergeCell ref="M6:N7"/>
+    <mergeCell ref="O6:P7"/>
+    <mergeCell ref="Q6:T7"/>
+    <mergeCell ref="U6:AB7"/>
+    <mergeCell ref="AC6:AF7"/>
+    <mergeCell ref="AL6:AO7"/>
+    <mergeCell ref="AG6:AK7"/>
+    <mergeCell ref="AP6:AR7"/>
+    <mergeCell ref="AS6:AU7"/>
+    <mergeCell ref="AV6:AX7"/>
+    <mergeCell ref="AY6:BA7"/>
+    <mergeCell ref="BB6:BL7"/>
+    <mergeCell ref="CG10:CJ15"/>
+    <mergeCell ref="Q10:T15"/>
+    <mergeCell ref="M10:P15"/>
+    <mergeCell ref="BM10:BP15"/>
+    <mergeCell ref="BQ10:BT15"/>
+    <mergeCell ref="BU10:CB15"/>
+    <mergeCell ref="CC10:CF15"/>
+    <mergeCell ref="AC10:AF15"/>
+    <mergeCell ref="Y10:AB15"/>
+    <mergeCell ref="U10:X15"/>
+    <mergeCell ref="AR10:AR11"/>
+    <mergeCell ref="AP10:AQ13"/>
+    <mergeCell ref="AM10:AM11"/>
+    <mergeCell ref="AM12:AM13"/>
+    <mergeCell ref="AN12:AN13"/>
+    <mergeCell ref="AN10:AN11"/>
+    <mergeCell ref="BA10:BB13"/>
+    <mergeCell ref="AT10:AZ16"/>
+    <mergeCell ref="AM50:AM51"/>
+    <mergeCell ref="AN50:AN51"/>
+    <mergeCell ref="AN48:AN49"/>
+    <mergeCell ref="AM48:AM49"/>
+    <mergeCell ref="AS42:AY43"/>
+    <mergeCell ref="AG37:BD41"/>
+    <mergeCell ref="AR27:AR28"/>
+    <mergeCell ref="AN27:AN28"/>
+    <mergeCell ref="AN29:AN30"/>
+    <mergeCell ref="AM29:AM30"/>
+    <mergeCell ref="AM27:AM28"/>
+    <mergeCell ref="BA27:BB30"/>
+    <mergeCell ref="AT27:AZ30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <webPublishItems count="1">
+    <webPublishItem id="28124" divId="rakusei_map_28124" sourceType="range" sourceRef="K21:CL32" destinationFile="C:\Users\kense\OneDrive\ドキュメント\rakusei_map_3.html"/>
+  </webPublishItems>
 </worksheet>
 </file>
--- a/rakusei_map.xlsx
+++ b/rakusei_map.xlsx
@@ -813,7 +813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="J5:CN77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
       <selection activeCell="DE58" sqref="DE58"/>
     </sheetView>
   </sheetViews>
@@ -5579,7 +5579,7 @@
       <c r="CL69" s="31"/>
       <c r="CM69" s="31"/>
     </row>
-    <row r="70" spans="11:91" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="11:91" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K70" s="11"/>
       <c r="L70" s="31"/>
       <c r="M70" s="31"/>
@@ -5662,7 +5662,7 @@
       <c r="CL70" s="31"/>
       <c r="CM70" s="31"/>
     </row>
-    <row r="71" spans="11:91" ht="12.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="11:91" ht="6.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K71" s="13"/>
       <c r="L71" s="16"/>
       <c r="M71" s="19">

--- a/rakusei_map.xlsx
+++ b/rakusei_map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\user\kense\hp_rakusei73rd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E98679-97EE-466A-9642-AC2131BE7E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6A3AC1-95E1-415A-A596-D453BAA779ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -803,7 +803,7 @@
   <dimension ref="J5:CN79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" workbookViewId="0">
-      <selection activeCell="U58" sqref="U58"/>
+      <selection activeCell="J60" sqref="J60:CL79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5707,11 +5707,15 @@
       <c r="AM71" s="26"/>
       <c r="AN71" s="26"/>
       <c r="AO71" s="5"/>
-      <c r="AP71" s="11"/>
+      <c r="AP71" s="11">
+        <v>55</v>
+      </c>
       <c r="AQ71" s="13"/>
       <c r="AR71" s="26"/>
       <c r="AS71" s="13"/>
-      <c r="AT71" s="5"/>
+      <c r="AT71" s="5">
+        <v>54</v>
+      </c>
       <c r="AU71" s="6"/>
       <c r="AV71" s="6"/>
       <c r="AW71" s="6"/>
@@ -5738,9 +5742,13 @@
       <c r="BN71" s="12"/>
       <c r="BO71" s="12"/>
       <c r="BP71" s="13"/>
-      <c r="BQ71" s="11"/>
+      <c r="BQ71" s="11">
+        <v>59</v>
+      </c>
       <c r="BR71" s="13"/>
-      <c r="BS71" s="11"/>
+      <c r="BS71" s="11">
+        <v>60</v>
+      </c>
       <c r="BT71" s="13"/>
       <c r="BU71" s="32">
         <v>40</v>
@@ -6054,7 +6062,9 @@
       <c r="AL75" s="12"/>
       <c r="AM75" s="12"/>
       <c r="AN75" s="12"/>
-      <c r="AO75" s="11"/>
+      <c r="AO75" s="11">
+        <v>67</v>
+      </c>
       <c r="AP75" s="32"/>
       <c r="AQ75" s="32"/>
       <c r="AR75" s="32"/>
@@ -6065,7 +6075,9 @@
       <c r="AW75" s="6"/>
       <c r="AX75" s="6"/>
       <c r="AY75" s="6"/>
-      <c r="AZ75" s="32"/>
+      <c r="AZ75" s="32">
+        <v>64</v>
+      </c>
       <c r="BA75" s="12"/>
       <c r="BB75" s="12"/>
       <c r="BC75" s="12"/>
@@ -6168,13 +6180,17 @@
       <c r="BP76" s="7"/>
       <c r="BQ76" s="5"/>
       <c r="BR76" s="7"/>
-      <c r="BS76" s="11"/>
+      <c r="BS76" s="11">
+        <v>61</v>
+      </c>
       <c r="BT76" s="13"/>
       <c r="BU76" s="32"/>
       <c r="BV76" s="32"/>
       <c r="BW76" s="32"/>
       <c r="BX76" s="32"/>
-      <c r="BY76" s="11"/>
+      <c r="BY76" s="11">
+        <v>63</v>
+      </c>
       <c r="BZ76" s="12"/>
       <c r="CA76" s="12"/>
       <c r="CB76" s="13"/>
@@ -6197,7 +6213,9 @@
       <c r="K77" s="32"/>
       <c r="L77" s="32"/>
       <c r="M77" s="32"/>
-      <c r="N77" s="12"/>
+      <c r="N77" s="12">
+        <v>68</v>
+      </c>
       <c r="O77" s="12"/>
       <c r="P77" s="12"/>
       <c r="Q77" s="12"/>
@@ -6235,9 +6253,13 @@
       <c r="AW77" s="6"/>
       <c r="AX77" s="6"/>
       <c r="AY77" s="6"/>
-      <c r="AZ77" s="28"/>
+      <c r="AZ77" s="28">
+        <v>65</v>
+      </c>
       <c r="BA77" s="15"/>
-      <c r="BB77" s="33"/>
+      <c r="BB77" s="33">
+        <v>66</v>
+      </c>
       <c r="BC77" s="34"/>
       <c r="BD77" s="34"/>
       <c r="BE77" s="34"/>
@@ -6256,7 +6278,9 @@
       <c r="BR77" s="10"/>
       <c r="BS77" s="8"/>
       <c r="BT77" s="10"/>
-      <c r="BU77" s="14"/>
+      <c r="BU77" s="14">
+        <v>62</v>
+      </c>
       <c r="BV77" s="14"/>
       <c r="BW77" s="14"/>
       <c r="BX77" s="15"/>
@@ -6307,18 +6331,24 @@
       <c r="AL78" s="32"/>
       <c r="AM78" s="32"/>
       <c r="AN78" s="32"/>
-      <c r="AO78" s="12"/>
+      <c r="AO78" s="12">
+        <v>56</v>
+      </c>
       <c r="AP78" s="12"/>
       <c r="AQ78" s="12"/>
       <c r="AR78" s="12"/>
       <c r="AS78" s="12"/>
-      <c r="AT78" s="6"/>
+      <c r="AT78" s="6">
+        <v>57</v>
+      </c>
       <c r="AU78" s="6"/>
       <c r="AV78" s="6"/>
       <c r="AW78" s="6"/>
       <c r="AX78" s="6"/>
       <c r="AY78" s="6"/>
-      <c r="AZ78" s="6"/>
+      <c r="AZ78" s="6">
+        <v>58</v>
+      </c>
       <c r="BA78" s="6"/>
       <c r="BB78" s="6"/>
       <c r="BC78" s="6"/>
@@ -6359,7 +6389,9 @@
       <c r="CL78" s="6"/>
     </row>
     <row r="79" spans="10:91" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J79" s="6"/>
+      <c r="J79" s="6">
+        <v>69</v>
+      </c>
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
       <c r="M79" s="6"/>
@@ -6831,8 +6863,9 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <webPublishItems count="5">
+  <webPublishItems count="6">
     <webPublishItem id="24133" divId="rakusei_map_24133" sourceType="range" sourceRef="J5:CM17" destinationFile="E:\user\kense\rakusei_map4th.htm"/>
+    <webPublishItem id="25106" divId="rakusei_map_25106" sourceType="range" sourceRef="J60:CL79" destinationFile="E:\user\kense\rakusei_map1st.html"/>
     <webPublishItem id="27541" divId="rakusei_map_27541" sourceType="range" sourceRef="K6:CL16" destinationFile="E:\user\kense\rakusei_map4th.htm"/>
     <webPublishItem id="28124" divId="rakusei_map_28124" sourceType="range" sourceRef="K22:CL33" destinationFile="E:\user\kense\rakusei_map3rd.html"/>
     <webPublishItem id="6158" divId="rakusei_map_6158" sourceType="range" sourceRef="K38:CL55" destinationFile="E:\user\kense\rakusei_map2nd.html"/>
